--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,11 +84,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,71 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25600" windowHeight="14960"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>heyyyyyy</t>
-  </si>
-  <si>
-    <t>vfb</t>
-  </si>
-  <si>
-    <t>sef</t>
-  </si>
-  <si>
-    <t>wdef</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>dgerg</t>
-  </si>
-  <si>
-    <t>grtn</t>
-  </si>
-  <si>
-    <t>fh</t>
-  </si>
-  <si>
-    <t>jgyj</t>
+    <t>['cfd893a46090']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,16 +55,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,78 +389,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,45 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25600" windowHeight="14960"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>['cfd893a46090']</t>
+    <t>['8a9ab3409000']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,17 +64,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -389,98 +403,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>['8a9ab3409000']</t>
+    <t>CFD893A460</t>
+  </si>
+  <si>
+    <t>gary tsai</t>
+  </si>
+  <si>
+    <t>8A9AB340</t>
+  </si>
+  <si>
+    <t>CBS</t>
   </si>
 </sst>
 </file>
@@ -24,7 +33,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,18 +80,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="18">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="18">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 11" xfId="6"/>
+    <cellStyle name="Normal 10" xfId="7"/>
+    <cellStyle name="Normal 13" xfId="8"/>
+    <cellStyle name="Normal 12" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 14" xfId="11"/>
+    <cellStyle name="Normal 7" xfId="12"/>
+    <cellStyle name="Normal 16" xfId="13"/>
+    <cellStyle name="Normal 9" xfId="14"/>
+    <cellStyle name="Normal 8" xfId="15"/>
+    <cellStyle name="Normal 15" xfId="16"/>
+    <cellStyle name="Normal 4" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -408,37 +454,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:3"/>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -7,6 +7,7 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,18 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>8A9AB340</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
   <si>
     <t>CFD893A460</t>
   </si>
   <si>
-    <t>gary tsai</t>
-  </si>
-  <si>
-    <t>8A9AB340</t>
-  </si>
-  <si>
-    <t>CBS</t>
+    <t>Gary Tsai</t>
+  </si>
+  <si>
+    <t>8FD8AAE4A0</t>
+  </si>
+  <si>
+    <t>Steven Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total student visited this month: </t>
   </si>
 </sst>
 </file>
@@ -33,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,6 +71,34 @@
       <color theme="10"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="00000000"/>
+      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,11 +118,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="19">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -100,28 +139,31 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="14"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="14"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 11" xfId="6"/>
-    <cellStyle name="Normal 10" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle name="Normal 12" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="10"/>
-    <cellStyle name="Normal 14" xfId="11"/>
-    <cellStyle name="Normal 7" xfId="12"/>
-    <cellStyle name="Normal 16" xfId="13"/>
-    <cellStyle name="Normal 9" xfId="14"/>
-    <cellStyle name="Normal 8" xfId="15"/>
-    <cellStyle name="Normal 15" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="17"/>
+    <cellStyle name="Normal 17" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="Normal 16" xfId="3"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="5"/>
+    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 3" xfId="9"/>
+    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="14"/>
+    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle name="Normal 15" xfId="17"/>
+    <cellStyle name="Normal 4" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -454,10 +496,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -471,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row customHeight="1" ht="30" r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -482,7 +524,47 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row customHeight="1" ht="23" r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUM(sheet!C2:C4)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>August 2016</t>
+  </si>
   <si>
     <t>8A9AB340</t>
   </si>
@@ -123,8 +126,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -147,17 +150,17 @@
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 16" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
-    <cellStyle name="Normal 13" xfId="5"/>
-    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 12" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 13" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
     <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 14" xfId="12"/>
     <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 6" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
@@ -496,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -504,35 +507,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3"/>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>69</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:3">
+    <row customHeight="1" ht="30" r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -560,12 +570,9 @@
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(sheet!C2:C4)</f>
-        <v/>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>August 2016</t>
   </si>
@@ -38,7 +44,7 @@
     <t>Steven Vargas</t>
   </si>
   <si>
-    <t xml:space="preserve">Total student visited this month: </t>
+    <t>Total visits this month:</t>
   </si>
 </sst>
 </file>
@@ -46,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
+      <color rgb="00000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="00000000"/>
       <sz val="18"/>
     </font>
@@ -126,7 +138,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -141,26 +152,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="14"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="14"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle name="Normal 12" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
-    <cellStyle name="Normal 13" xfId="6"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="Normal 16" xfId="3"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="5"/>
+    <cellStyle name="Normal 14" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
     <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
+    <cellStyle name="Normal 12" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 14" xfId="12"/>
+    <cellStyle name="Normal 2" xfId="12"/>
     <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 6" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
@@ -506,32 +519,42 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
@@ -539,10 +562,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -570,9 +593,12 @@
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUM(sheet!E2:E4)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>UID</t>
   </si>
@@ -42,6 +42,51 @@
   </si>
   <si>
     <t>Steven Vargas</t>
+  </si>
+  <si>
+    <t>01FE5197502AC472</t>
+  </si>
+  <si>
+    <t>S4 phone</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>s4.2</t>
+  </si>
+  <si>
+    <t>08CE7849</t>
+  </si>
+  <si>
+    <t>08A088E0</t>
+  </si>
+  <si>
+    <t>hello there</t>
+  </si>
+  <si>
+    <t>08AB5506</t>
+  </si>
+  <si>
+    <t>lklk</t>
+  </si>
+  <si>
+    <t>089BFDF0</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>082881DB</t>
+  </si>
+  <si>
+    <t>nihao</t>
+  </si>
+  <si>
+    <t>01FE940C1FD75197</t>
+  </si>
+  <si>
+    <t>ni</t>
   </si>
   <si>
     <t>Total visits this month:</t>
@@ -512,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -546,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:5">
@@ -557,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -569,6 +614,94 @@
       </c>
       <c r="C4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -593,10 +726,10 @@
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(sheet!E2:E4)</f>
+        <f>SUM(sheet!E2:E12)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -183,8 +183,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -208,17 +208,17 @@
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 16" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
-    <cellStyle name="Normal 13" xfId="5"/>
-    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 12" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 13" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
     <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 14" xfId="12"/>
     <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 6" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:5">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>8A9AB340</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Steven Vargas</t>
+  </si>
+  <si>
+    <t>CFD899C8C0</t>
+  </si>
+  <si>
+    <t>Jennifer Mercedes</t>
   </si>
   <si>
     <t xml:space="preserve">Total student visited this month: </t>
@@ -146,24 +152,24 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 16" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle name="Normal 12" xfId="3"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
-    <cellStyle name="Normal 13" xfId="5"/>
-    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 13" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 7" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="14"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 17" xfId="13"/>
+    <cellStyle name="Normal 16" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
     <cellStyle name="Normal 8" xfId="16"/>
     <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 4" xfId="18"/>
+    <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -496,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -513,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:3">
@@ -524,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,6 +541,17 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -560,10 +577,10 @@
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(sheet!C2:C4)</f>
+        <f>SUM(sheet!C2:C5)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -23,28 +23,28 @@
     <t>Name</t>
   </si>
   <si>
+    <t>CFD893A460</t>
+  </si>
+  <si>
+    <t>Gary Tsai</t>
+  </si>
+  <si>
+    <t>8FD8AAE4A0</t>
+  </si>
+  <si>
+    <t>Steven Vargas</t>
+  </si>
+  <si>
+    <t>CFD899C8C0</t>
+  </si>
+  <si>
+    <t>Jennifer Mercedes</t>
+  </si>
+  <si>
     <t>8A9AB340</t>
   </si>
   <si>
     <t>CBS</t>
-  </si>
-  <si>
-    <t>CFD893A460</t>
-  </si>
-  <si>
-    <t>Gary Tsai</t>
-  </si>
-  <si>
-    <t>8FD8AAE4A0</t>
-  </si>
-  <si>
-    <t>Steven Vargas</t>
-  </si>
-  <si>
-    <t>CFD899C8C0</t>
-  </si>
-  <si>
-    <t>Jennifer Mercedes</t>
   </si>
   <si>
     <t>Total visits this month:</t>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,36 +87,28 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <i val="1"/>
       <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
       <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,13 +129,13 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -157,30 +149,31 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="14"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="14"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="15"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="15"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 6" xfId="1"/>
-    <cellStyle name="Normal 7" xfId="2"/>
-    <cellStyle name="Normal 12" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 8" xfId="3"/>
+    <cellStyle name="Normal 7" xfId="4"/>
     <cellStyle builtinId="0" name="Normal" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="7"/>
-    <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 13" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 17" xfId="13"/>
-    <cellStyle name="Normal 16" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 10" xfId="9"/>
+    <cellStyle name="Normal 13" xfId="10"/>
+    <cellStyle name="Normal 12" xfId="11"/>
+    <cellStyle name="Normal 5" xfId="12"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 17" xfId="14"/>
+    <cellStyle name="Normal 16" xfId="15"/>
+    <cellStyle name="Normal 9" xfId="16"/>
     <cellStyle name="Normal 15" xfId="17"/>
     <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
@@ -518,16 +511,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="1" width="20"/>
     <col customWidth="1" max="2" min="2" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row customHeight="1" ht="23" r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -535,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row customHeight="1" ht="30" r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -543,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -554,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -576,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -600,10 +593,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f>SUM(sheet!C2:C5)</f>
         <v/>
       </c>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -135,14 +135,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -158,24 +158,24 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 8" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="Normal 17" xfId="3"/>
     <cellStyle name="Normal 7" xfId="4"/>
-    <cellStyle builtinId="0" name="Normal" xfId="5"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 13" xfId="10"/>
-    <cellStyle name="Normal 12" xfId="11"/>
-    <cellStyle name="Normal 5" xfId="12"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 17" xfId="14"/>
-    <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle name="Normal 9" xfId="16"/>
-    <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 14" xfId="18"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 6" xfId="6"/>
+    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 15" xfId="8"/>
+    <cellStyle name="Normal 12" xfId="9"/>
+    <cellStyle name="Normal 10" xfId="10"/>
+    <cellStyle name="Normal 11" xfId="11"/>
+    <cellStyle name="Normal 14" xfId="12"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="13"/>
+    <cellStyle name="Normal 2" xfId="14"/>
+    <cellStyle name="Normal 13" xfId="15"/>
+    <cellStyle name="Normal 5" xfId="16"/>
+    <cellStyle name="Normal 16" xfId="17"/>
+    <cellStyle name="Normal 9" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>UID</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>CFD893A460</t>
   </si>
   <si>
@@ -45,6 +48,60 @@
   </si>
   <si>
     <t>CBS</t>
+  </si>
+  <si>
+    <t>CFD8A78940</t>
+  </si>
+  <si>
+    <t>Nicole Latta</t>
+  </si>
+  <si>
+    <t>8FD8940860</t>
+  </si>
+  <si>
+    <t>David schachner</t>
+  </si>
+  <si>
+    <t>0FD8A9BD80</t>
+  </si>
+  <si>
+    <t>Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>CFD8A9E820</t>
+  </si>
+  <si>
+    <t>Richard Pusateri</t>
+  </si>
+  <si>
+    <t>0FD8A82F40</t>
+  </si>
+  <si>
+    <t>Mario Regino</t>
+  </si>
+  <si>
+    <t>CFD8AA9A20</t>
+  </si>
+  <si>
+    <t>Randell Holland</t>
+  </si>
+  <si>
+    <t>CFD89A9C80</t>
+  </si>
+  <si>
+    <t>Bryan Williams</t>
+  </si>
+  <si>
+    <t>4FD8A85BA0</t>
+  </si>
+  <si>
+    <t>Hojin Euam</t>
+  </si>
+  <si>
+    <t>0FD8A290A0</t>
+  </si>
+  <si>
+    <t>Paul Fabro</t>
   </si>
   <si>
     <t>Total visits this month:</t>
@@ -132,17 +189,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -157,25 +214,25 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 17" xfId="3"/>
-    <cellStyle name="Normal 7" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 6" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="7"/>
-    <cellStyle name="Normal 15" xfId="8"/>
-    <cellStyle name="Normal 12" xfId="9"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 11" xfId="11"/>
-    <cellStyle name="Normal 14" xfId="12"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="13"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 13" xfId="15"/>
-    <cellStyle name="Normal 5" xfId="16"/>
+    <cellStyle name="Normal 3" xfId="0"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="2"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 10" xfId="5"/>
+    <cellStyle name="Normal 15" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="0" name="Normal" xfId="8"/>
+    <cellStyle name="Normal 13" xfId="9"/>
+    <cellStyle name="Normal 12" xfId="10"/>
+    <cellStyle name="Normal 17" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 14" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="14"/>
+    <cellStyle name="Normal 7" xfId="15"/>
+    <cellStyle name="Normal 9" xfId="16"/>
     <cellStyle name="Normal 16" xfId="17"/>
-    <cellStyle name="Normal 9" xfId="18"/>
+    <cellStyle name="Normal 11" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -508,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -520,56 +577,161 @@
     <col customWidth="1" max="2" min="2" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:3">
+    <row customHeight="1" ht="23" r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -594,12 +756,9 @@
   <sheetData>
     <row customHeight="1" ht="23" r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <f>SUM(sheet!C2:C5)</f>
-        <v/>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>UID</t>
   </si>
@@ -26,6 +26,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>CFD893A460</t>
   </si>
   <si>
@@ -104,7 +107,7 @@
     <t>Paul Fabro</t>
   </si>
   <si>
-    <t>Total visits this month:</t>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,19 +154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
       <color rgb="00000000"/>
       <sz val="15"/>
     </font>
@@ -189,6 +179,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -204,35 +195,32 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="15"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="10"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="15"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 3" xfId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal 8" xfId="2"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle name="Normal 15" xfId="6"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
-    <cellStyle builtinId="0" name="Normal" xfId="8"/>
-    <cellStyle name="Normal 13" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
+    <cellStyle name="Normal 17" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="Normal 16" xfId="3"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="5"/>
+    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 3" xfId="9"/>
     <cellStyle name="Normal 12" xfId="10"/>
-    <cellStyle name="Normal 17" xfId="11"/>
+    <cellStyle name="Normal 5" xfId="11"/>
     <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 14" xfId="13"/>
+    <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 6" xfId="14"/>
-    <cellStyle name="Normal 7" xfId="15"/>
-    <cellStyle name="Normal 9" xfId="16"/>
-    <cellStyle name="Normal 16" xfId="17"/>
-    <cellStyle name="Normal 11" xfId="18"/>
+    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle name="Normal 15" xfId="17"/>
+    <cellStyle name="Normal 4" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -565,170 +553,170 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="2" min="1" width="20"/>
-    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="5" min="4" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row customHeight="1" ht="23" r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -746,22 +734,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="n"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>UID</t>
   </si>
@@ -26,85 +26,82 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>September 2016</t>
+    <t>8FD8AAE4A0</t>
+  </si>
+  <si>
+    <t>Steven Vargas</t>
+  </si>
+  <si>
+    <t>CFD899C8C0</t>
+  </si>
+  <si>
+    <t>Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t>CFD8A78940</t>
+  </si>
+  <si>
+    <t>Nicole Latta</t>
+  </si>
+  <si>
+    <t>8FD8940860</t>
+  </si>
+  <si>
+    <t>David schachner</t>
+  </si>
+  <si>
+    <t>0FD8A9BD80</t>
+  </si>
+  <si>
+    <t>Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>CFD8A9E820</t>
+  </si>
+  <si>
+    <t>Richard Pusateri</t>
+  </si>
+  <si>
+    <t>0FD8A82F40</t>
+  </si>
+  <si>
+    <t>Mario Regino</t>
+  </si>
+  <si>
+    <t>CFD8AA9A20</t>
+  </si>
+  <si>
+    <t>Randell Holland</t>
+  </si>
+  <si>
+    <t>CFD89A9C80</t>
+  </si>
+  <si>
+    <t>Bryan Williams</t>
+  </si>
+  <si>
+    <t>4FD8A85BA0</t>
+  </si>
+  <si>
+    <t>Hojin Euam</t>
+  </si>
+  <si>
+    <t>0FD8A290A0</t>
+  </si>
+  <si>
+    <t>Paul Fabro</t>
+  </si>
+  <si>
+    <t>8A9AB340</t>
+  </si>
+  <si>
+    <t>CBS</t>
   </si>
   <si>
     <t>CFD893A460</t>
   </si>
   <si>
     <t>Gary Tsai</t>
-  </si>
-  <si>
-    <t>8FD8AAE4A0</t>
-  </si>
-  <si>
-    <t>Steven Vargas</t>
-  </si>
-  <si>
-    <t>CFD899C8C0</t>
-  </si>
-  <si>
-    <t>Jennifer Mercedes</t>
-  </si>
-  <si>
-    <t>8A9AB340</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <t>CFD8A78940</t>
-  </si>
-  <si>
-    <t>Nicole Latta</t>
-  </si>
-  <si>
-    <t>8FD8940860</t>
-  </si>
-  <si>
-    <t>David schachner</t>
-  </si>
-  <si>
-    <t>0FD8A9BD80</t>
-  </si>
-  <si>
-    <t>Jaspreet Kaur</t>
-  </si>
-  <si>
-    <t>CFD8A9E820</t>
-  </si>
-  <si>
-    <t>Richard Pusateri</t>
-  </si>
-  <si>
-    <t>0FD8A82F40</t>
-  </si>
-  <si>
-    <t>Mario Regino</t>
-  </si>
-  <si>
-    <t>CFD8AA9A20</t>
-  </si>
-  <si>
-    <t>Randell Holland</t>
-  </si>
-  <si>
-    <t>CFD89A9C80</t>
-  </si>
-  <si>
-    <t>Bryan Williams</t>
-  </si>
-  <si>
-    <t>4FD8A85BA0</t>
-  </si>
-  <si>
-    <t>Hojin Euam</t>
-  </si>
-  <si>
-    <t>0FD8A290A0</t>
-  </si>
-  <si>
-    <t>Paul Fabro</t>
   </si>
   <si>
     <t>Month</t>
@@ -115,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,8 +151,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="00000000"/>
-      <sz val="15"/>
+      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,6 +183,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -194,33 +198,33 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="18"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="18"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 16" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
-    <cellStyle name="Normal 13" xfId="5"/>
-    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 17" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 13" xfId="6"/>
     <cellStyle name="Normal 11" xfId="7"/>
     <cellStyle name="Normal 10" xfId="8"/>
     <cellStyle name="Normal 3" xfId="9"/>
     <cellStyle name="Normal 12" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="12"/>
     <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 6" xfId="14"/>
     <cellStyle name="Normal 9" xfId="15"/>
     <cellStyle name="Normal 8" xfId="16"/>
     <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 4" xfId="18"/>
+    <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -553,173 +557,138 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="20"/>
-    <col customWidth="1" max="5" min="4" width="20"/>
+    <col customWidth="1" max="4" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="23" r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +706,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -745,14 +714,18 @@
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row customHeight="1" ht="19" r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Sheet!C2:C14)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>UID</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>August 2016</t>
   </si>
   <si>
@@ -92,16 +95,22 @@
     <t>Paul Fabro</t>
   </si>
   <si>
-    <t>8A9AB340</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
     <t>CFD893A460</t>
   </si>
   <si>
-    <t>Gary Tsai</t>
+    <t>garytsai</t>
+  </si>
+  <si>
+    <t>garytsai@live</t>
+  </si>
+  <si>
+    <t>4FD87D1F40</t>
+  </si>
+  <si>
+    <t>Gao Fang</t>
+  </si>
+  <si>
+    <t>fang.gao@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -144,15 +153,15 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
       <color rgb="FF000000"/>
-      <sz val="18"/>
+      <sz val="15"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
       <color rgb="FF000000"/>
-      <sz val="15"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -184,47 +193,49 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="18"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="10"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="18"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="6"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="12"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="16"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="12"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="16"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 17" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
-    <cellStyle name="Normal 13" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="7"/>
-    <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 12" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 7" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
+    <cellStyle name="Normal 11" xfId="0"/>
+    <cellStyle name="Normal 16" xfId="1"/>
+    <cellStyle name="Normal 14" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 10" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 15" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="0" name="Normal" xfId="10"/>
+    <cellStyle name="Normal 6" xfId="11"/>
+    <cellStyle name="Normal 9" xfId="12"/>
+    <cellStyle name="Normal 13" xfId="13"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
+    <cellStyle name="Normal 17" xfId="15"/>
     <cellStyle name="Normal 8" xfId="16"/>
-    <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 14" xfId="18"/>
+    <cellStyle name="Normal 7" xfId="17"/>
+    <cellStyle name="Normal 12" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -557,10 +568,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -568,127 +579,137 @@
     <col customWidth="1" max="4" min="1" width="20"/>
     <col customWidth="1" max="2" min="2" width="20"/>
     <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row customHeight="1" ht="23" r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -715,16 +736,16 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
+      <c r="A1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!C2:C14)</f>
+        <f>SUM(Sheet!D2:D14)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>UID</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Jaspreet Kaur</t>
   </si>
   <si>
+    <t>jaspreet.kaur6@jjay.cuny.edu</t>
+  </si>
+  <si>
     <t>CFD8A9E820</t>
   </si>
   <si>
@@ -74,7 +77,10 @@
     <t>CFD8AA9A20</t>
   </si>
   <si>
-    <t>Randell Holland</t>
+    <t>Rondell Holland</t>
+  </si>
+  <si>
+    <t>rondell.holland@jjay.cuny.edu</t>
   </si>
   <si>
     <t>CFD89A9C80</t>
@@ -111,6 +117,24 @@
   </si>
   <si>
     <t>fang.gao@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A841E0</t>
+  </si>
+  <si>
+    <t>Sujay Bhaskar kashyap</t>
+  </si>
+  <si>
+    <t>sujay.bhaskarkashyap@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AC0500</t>
+  </si>
+  <si>
+    <t>jimmy Barreto</t>
+  </si>
+  <si>
+    <t>j.barreto1823@yahoo.com</t>
   </si>
   <si>
     <t>Month</t>
@@ -188,21 +212,21 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -217,25 +241,25 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="16"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 11" xfId="0"/>
-    <cellStyle name="Normal 16" xfId="1"/>
-    <cellStyle name="Normal 14" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 10" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
-    <cellStyle name="Normal 15" xfId="8"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="0" name="Normal" xfId="10"/>
-    <cellStyle name="Normal 6" xfId="11"/>
-    <cellStyle name="Normal 9" xfId="12"/>
-    <cellStyle name="Normal 13" xfId="13"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
-    <cellStyle name="Normal 17" xfId="15"/>
-    <cellStyle name="Normal 8" xfId="16"/>
-    <cellStyle name="Normal 7" xfId="17"/>
-    <cellStyle name="Normal 12" xfId="18"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="2"/>
+    <cellStyle name="Normal 17" xfId="3"/>
+    <cellStyle name="Normal 13" xfId="4"/>
+    <cellStyle name="Normal 9" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 7" xfId="10"/>
+    <cellStyle name="Normal 12" xfId="11"/>
+    <cellStyle name="Normal 8" xfId="12"/>
+    <cellStyle name="Normal 15" xfId="13"/>
+    <cellStyle name="Normal 14" xfId="14"/>
+    <cellStyle name="Normal 6" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle name="Normal 3" xfId="17"/>
+    <cellStyle name="Normal 16" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -568,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -635,81 +659,121 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +801,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -745,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D14)</f>
+        <f>SUM(Sheet!D2:D16)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>UID</t>
   </si>
@@ -38,7 +38,10 @@
     <t>CFD899C8C0</t>
   </si>
   <si>
-    <t>Jennifer Mercedes</t>
+    <t xml:space="preserve">Jennifer Mercedes </t>
+  </si>
+  <si>
+    <t>jennifer.mercedes@jjay.cuny.edu</t>
   </si>
   <si>
     <t>CFD8A78940</t>
@@ -135,6 +138,42 @@
   </si>
   <si>
     <t>j.barreto1823@yahoo.com</t>
+  </si>
+  <si>
+    <t>0FD8A6BA00</t>
+  </si>
+  <si>
+    <t>John Orellana</t>
+  </si>
+  <si>
+    <t>john.orellana@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8A366C0</t>
+  </si>
+  <si>
+    <t>Joseph Ganci</t>
+  </si>
+  <si>
+    <t>joseph.ganci@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8ADD700</t>
+  </si>
+  <si>
+    <t>kamal ogumdimu</t>
+  </si>
+  <si>
+    <t>ogumdimukamal@gmail.com</t>
+  </si>
+  <si>
+    <t>0FD8AB6EE0</t>
+  </si>
+  <si>
+    <t>Jonathan Taggart, jonathan.taggart@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>jonathan.taggart@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -212,21 +251,21 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -241,25 +280,25 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="16"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 17" xfId="3"/>
-    <cellStyle name="Normal 13" xfId="4"/>
-    <cellStyle name="Normal 9" xfId="5"/>
-    <cellStyle builtinId="0" name="Normal" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 7" xfId="10"/>
-    <cellStyle name="Normal 12" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 15" xfId="13"/>
-    <cellStyle name="Normal 14" xfId="14"/>
-    <cellStyle name="Normal 6" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
-    <cellStyle name="Normal 3" xfId="17"/>
-    <cellStyle name="Normal 16" xfId="18"/>
+    <cellStyle name="Normal 12" xfId="0"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 9" xfId="2"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle name="Normal 16" xfId="4"/>
+    <cellStyle name="Normal 15" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 17" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 14" xfId="9"/>
+    <cellStyle name="Normal 6" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="11"/>
+    <cellStyle name="Normal 13" xfId="12"/>
+    <cellStyle name="Normal 5" xfId="13"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
+    <cellStyle name="Normal 7" xfId="15"/>
+    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle builtinId="0" name="Normal" xfId="17"/>
+    <cellStyle name="Normal 11" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -592,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -635,32 +674,38 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -668,29 +713,29 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -698,51 +743,51 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -750,13 +795,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -764,15 +809,71 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,7 +902,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -809,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D16)</f>
+        <f>SUM(Sheet!D2:D20)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>UID</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>j.barreto1823@yahoo.com</t>
+  </si>
+  <si>
+    <t>saergetsrt</t>
+  </si>
+  <si>
+    <t>saeccffrgetsrt</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>@live</t>
+  </si>
+  <si>
+    <t>saeccffrgeaa</t>
+  </si>
+  <si>
+    <t>Gary Tsai</t>
+  </si>
+  <si>
+    <t>yue.tsai@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>saeccffrgea</t>
   </si>
   <si>
     <t>Month</t>
@@ -145,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,12 +211,6 @@
       <color rgb="FF000000"/>
       <sz val="18"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,34 +250,32 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="6"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="12"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="16"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="12"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="16"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="15"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 17" xfId="3"/>
-    <cellStyle name="Normal 13" xfId="4"/>
-    <cellStyle name="Normal 9" xfId="5"/>
-    <cellStyle builtinId="0" name="Normal" xfId="6"/>
+    <cellStyle name="Normal 9" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 14" xfId="4"/>
+    <cellStyle name="Normal 15" xfId="5"/>
+    <cellStyle name="Normal 12" xfId="6"/>
     <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 7" xfId="10"/>
-    <cellStyle name="Normal 12" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 15" xfId="13"/>
-    <cellStyle name="Normal 14" xfId="14"/>
-    <cellStyle name="Normal 6" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="0" name="Normal" xfId="8"/>
+    <cellStyle name="Normal 7" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 13" xfId="11"/>
+    <cellStyle name="Normal 10" xfId="12"/>
+    <cellStyle name="Normal 8" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle name="Normal 16" xfId="15"/>
+    <cellStyle name="Normal 11" xfId="16"/>
     <cellStyle name="Normal 3" xfId="17"/>
-    <cellStyle name="Normal 16" xfId="18"/>
+    <cellStyle name="Normal 17" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -592,28 +608,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="4" min="1" width="20"/>
-    <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="3" min="3" width="20"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -774,6 +787,52 @@
       </c>
       <c r="D16" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -799,18 +858,14 @@
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:2">
+    <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <f>SUM(Sheet!D2:D16)</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>UID</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>saeccffrgea</t>
+  </si>
+  <si>
+    <t>8A9AB340</t>
+  </si>
+  <si>
+    <t>gary tsai</t>
+  </si>
+  <si>
+    <t>gary@live.com</t>
+  </si>
+  <si>
+    <t>56DF39C0</t>
+  </si>
+  <si>
+    <t>Xingmei ni</t>
+  </si>
+  <si>
+    <t>@</t>
   </si>
   <si>
     <t>Month</t>
@@ -169,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -211,6 +229,12 @@
       <color rgb="FF000000"/>
       <sz val="18"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="18"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,6 +254,16 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -239,43 +273,35 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="6"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="15"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="14"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="14"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 9" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 14" xfId="4"/>
-    <cellStyle name="Normal 15" xfId="5"/>
-    <cellStyle name="Normal 12" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle builtinId="0" name="Normal" xfId="8"/>
-    <cellStyle name="Normal 7" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="10"/>
-    <cellStyle name="Normal 13" xfId="11"/>
-    <cellStyle name="Normal 10" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
-    <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle name="Normal 11" xfId="16"/>
-    <cellStyle name="Normal 3" xfId="17"/>
-    <cellStyle name="Normal 17" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle name="Normal 14" xfId="2"/>
+    <cellStyle name="Normal 12" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 11" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle name="Normal 7" xfId="8"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="10"/>
+    <cellStyle name="Normal 9" xfId="11"/>
+    <cellStyle name="Normal 8" xfId="12"/>
+    <cellStyle name="Normal 17" xfId="13"/>
+    <cellStyle name="Normal 15" xfId="14"/>
+    <cellStyle name="Normal 6" xfId="15"/>
+    <cellStyle name="Normal 16" xfId="16"/>
+    <cellStyle name="Normal 13" xfId="17"/>
+    <cellStyle name="Normal 10" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -608,25 +634,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" width="20"/>
+    <col customWidth="1" max="2" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -744,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -829,9 +858,35 @@
       <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
       <c r="D20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -847,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -858,14 +913,18 @@
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:1">
+    <row customHeight="1" ht="19" r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Sheet!D2:D22)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>UID</t>
   </si>
@@ -38,10 +38,7 @@
     <t>CFD899C8C0</t>
   </si>
   <si>
-    <t xml:space="preserve">Jennifer Mercedes </t>
-  </si>
-  <si>
-    <t>jennifer.mercedes@jjay.cuny.edu</t>
+    <t>Jennifer Mercedes</t>
   </si>
   <si>
     <t>CFD8A78940</t>
@@ -62,9 +59,6 @@
     <t>Jaspreet Kaur</t>
   </si>
   <si>
-    <t>jaspreet.kaur6@jjay.cuny.edu</t>
-  </si>
-  <si>
     <t>CFD8A9E820</t>
   </si>
   <si>
@@ -80,10 +74,7 @@
     <t>CFD8AA9A20</t>
   </si>
   <si>
-    <t>Rondell Holland</t>
-  </si>
-  <si>
-    <t>rondell.holland@jjay.cuny.edu</t>
+    <t>Randell Holland</t>
   </si>
   <si>
     <t>CFD89A9C80</t>
@@ -104,76 +95,229 @@
     <t>Paul Fabro</t>
   </si>
   <si>
+    <t>8A9AB340</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
     <t>CFD893A460</t>
   </si>
   <si>
-    <t>garytsai</t>
-  </si>
-  <si>
-    <t>garytsai@live</t>
-  </si>
-  <si>
-    <t>4FD87D1F40</t>
-  </si>
-  <si>
-    <t>Gao Fang</t>
-  </si>
-  <si>
-    <t>fang.gao@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A841E0</t>
-  </si>
-  <si>
-    <t>Sujay Bhaskar kashyap</t>
-  </si>
-  <si>
-    <t>sujay.bhaskarkashyap@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8AC0500</t>
-  </si>
-  <si>
-    <t>jimmy Barreto</t>
-  </si>
-  <si>
-    <t>j.barreto1823@yahoo.com</t>
-  </si>
-  <si>
-    <t>0FD8A6BA00</t>
-  </si>
-  <si>
-    <t>John Orellana</t>
-  </si>
-  <si>
-    <t>john.orellana@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8A366C0</t>
-  </si>
-  <si>
-    <t>Joseph Ganci</t>
-  </si>
-  <si>
-    <t>joseph.ganci@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8ADD700</t>
-  </si>
-  <si>
-    <t>kamal ogumdimu</t>
-  </si>
-  <si>
-    <t>ogumdimukamal@gmail.com</t>
+    <t>Gary Tsai</t>
+  </si>
+  <si>
+    <t>4FD8A51080</t>
+  </si>
+  <si>
+    <t>Calvin Y Au</t>
+  </si>
+  <si>
+    <t>calvin.au@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A434E0</t>
+  </si>
+  <si>
+    <t>Oscar Chicaiza</t>
+  </si>
+  <si>
+    <t>oscar.chicaiza@jjay.cuny.edu</t>
   </si>
   <si>
     <t>0FD8AB6EE0</t>
   </si>
   <si>
-    <t>Jonathan Taggart, jonathan.taggart@jjay.cuny.edu</t>
+    <t>Jonathan Taggart</t>
   </si>
   <si>
     <t>jonathan.taggart@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A35500</t>
+  </si>
+  <si>
+    <t>Juan Santa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan.santa@jjay.cuny.edu </t>
+  </si>
+  <si>
+    <t>0FD8ACF700</t>
+  </si>
+  <si>
+    <t>Jared Amuso</t>
+  </si>
+  <si>
+    <t>Jared.amuso@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AD3760</t>
+  </si>
+  <si>
+    <t>0FD88F2580</t>
+  </si>
+  <si>
+    <t>Carolyn Alana</t>
+  </si>
+  <si>
+    <t>carolyn.alana@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A001C0</t>
+  </si>
+  <si>
+    <t>karla pimentel</t>
+  </si>
+  <si>
+    <t>karla.pimentel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AD9C60</t>
+  </si>
+  <si>
+    <t>everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>everton.mendozaholmes@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD88715A0</t>
+  </si>
+  <si>
+    <t>Christopher Rogers</t>
+  </si>
+  <si>
+    <t>crog92@gmail.com</t>
+  </si>
+  <si>
+    <t>4FD8AA5440</t>
+  </si>
+  <si>
+    <t>Irene Kontonicolas</t>
+  </si>
+  <si>
+    <t>irene.kontonicolas@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A860A0</t>
+  </si>
+  <si>
+    <t>si Wu</t>
+  </si>
+  <si>
+    <t>si.wu@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A88320</t>
+  </si>
+  <si>
+    <t>Oscar Delgado</t>
+  </si>
+  <si>
+    <t>oscar.delgado@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A79360</t>
+  </si>
+  <si>
+    <t>Jose Comulada</t>
+  </si>
+  <si>
+    <t>jose.comulada@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A7F9C0</t>
+  </si>
+  <si>
+    <t>0FD8A289E0</t>
+  </si>
+  <si>
+    <t>Pual Corrales</t>
+  </si>
+  <si>
+    <t>pual.corrales@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AE43C0</t>
+  </si>
+  <si>
+    <t>Akeem Bowling</t>
+  </si>
+  <si>
+    <t>akeem.bowling@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A61420</t>
+  </si>
+  <si>
+    <t>Duban hershely</t>
+  </si>
+  <si>
+    <t>duban.hershely@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8AE1680</t>
+  </si>
+  <si>
+    <t>Fahad aslam</t>
+  </si>
+  <si>
+    <t>fahadaslam219@gmail.com</t>
+  </si>
+  <si>
+    <t>CFD891F2E0</t>
+  </si>
+  <si>
+    <t>Rita Riggieri</t>
+  </si>
+  <si>
+    <t>rita.guggieri@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A6DF00</t>
+  </si>
+  <si>
+    <t>Raida Okeke</t>
+  </si>
+  <si>
+    <t>raida1275@gmail.com</t>
+  </si>
+  <si>
+    <t>8FD8A5E160</t>
+  </si>
+  <si>
+    <t>John Bedoya</t>
+  </si>
+  <si>
+    <t>john.bedoya@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AE2B20</t>
+  </si>
+  <si>
+    <t>Brandon haden</t>
+  </si>
+  <si>
+    <t>hadenbrandon@gmail.com</t>
+  </si>
+  <si>
+    <t>0FD8A78100</t>
+  </si>
+  <si>
+    <t>Marcia Rodriguez</t>
+  </si>
+  <si>
+    <t>marcia.rodriques@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A5E5E0</t>
+  </si>
+  <si>
+    <t>Anthony Avevor</t>
+  </si>
+  <si>
+    <t>anthony.avevor@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -216,15 +360,15 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
       <color rgb="FF000000"/>
-      <sz val="15"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
       <color rgb="FF000000"/>
-      <sz val="18"/>
+      <sz val="15"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -261,44 +405,43 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="6"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="12"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="16"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="12"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="16"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="14"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="16"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 12" xfId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal 9" xfId="2"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle name="Normal 16" xfId="4"/>
-    <cellStyle name="Normal 15" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 17" xfId="7"/>
-    <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 14" xfId="9"/>
-    <cellStyle name="Normal 6" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 13" xfId="12"/>
-    <cellStyle name="Normal 5" xfId="13"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
-    <cellStyle name="Normal 7" xfId="15"/>
-    <cellStyle name="Normal 8" xfId="16"/>
-    <cellStyle builtinId="0" name="Normal" xfId="17"/>
-    <cellStyle name="Normal 11" xfId="18"/>
+    <cellStyle name="Normal 17" xfId="0"/>
+    <cellStyle name="Normal 9" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 11" xfId="5"/>
+    <cellStyle name="Normal 15" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 12" xfId="8"/>
+    <cellStyle name="Normal 16" xfId="9"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="10"/>
+    <cellStyle name="Normal 3" xfId="11"/>
+    <cellStyle name="Normal 8" xfId="12"/>
+    <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 14" xfId="14"/>
+    <cellStyle name="Normal 5" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="16"/>
+    <cellStyle name="Normal 13" xfId="17"/>
+    <cellStyle builtinId="0" name="Normal" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -631,28 +774,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" width="20"/>
+    <col customWidth="1" max="2" min="1" width="20"/>
     <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
     <col customWidth="1" max="4" min="4" width="20"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -666,6 +809,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -674,176 +820,194 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -851,13 +1015,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -865,15 +1029,269 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="n">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -901,17 +1319,13 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
+      <c r="A1" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <f>SUM(Sheet!D2:D20)</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>UID</t>
   </si>
@@ -50,12 +50,12 @@
     <t>Nicole Latta</t>
   </si>
   <si>
+    <t>nicole.latta@jjay.cuny.edu</t>
+  </si>
+  <si>
     <t>8FD8940860</t>
   </si>
   <si>
-    <t>David schachner</t>
-  </si>
-  <si>
     <t>0FD8A9BD80</t>
   </si>
   <si>
@@ -732,6 +732,126 @@
   </si>
   <si>
     <t>juan20g@hotmail.com</t>
+  </si>
+  <si>
+    <t>4FD8A62C40</t>
+  </si>
+  <si>
+    <t>Dowayne Dixon</t>
+  </si>
+  <si>
+    <t>dowayne.dixon@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AC2FE0</t>
+  </si>
+  <si>
+    <t>Marsha Longchamp</t>
+  </si>
+  <si>
+    <t>marsha.longchamp@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A92EE0</t>
+  </si>
+  <si>
+    <t>Noel Dillon</t>
+  </si>
+  <si>
+    <t>noel.dillon@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AC26E0</t>
+  </si>
+  <si>
+    <t>Mauricio Flores-cruz</t>
+  </si>
+  <si>
+    <t>mauricio.flores-cruz@yahoo.com</t>
+  </si>
+  <si>
+    <t>0FD8AE8B60</t>
+  </si>
+  <si>
+    <t>Natalie Primus</t>
+  </si>
+  <si>
+    <t>natalie.primus13@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8A04580</t>
+  </si>
+  <si>
+    <t>MAteusz Midura</t>
+  </si>
+  <si>
+    <t>mat.ari.1040@gmail.com</t>
+  </si>
+  <si>
+    <t>0FD8A42A20</t>
+  </si>
+  <si>
+    <t>Raquel Rosado</t>
+  </si>
+  <si>
+    <t>raquel.rosado@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8973720</t>
+  </si>
+  <si>
+    <t>8FD8A62520</t>
+  </si>
+  <si>
+    <t>4FD8ACD700</t>
+  </si>
+  <si>
+    <t>CFD8AC3C40</t>
+  </si>
+  <si>
+    <t>4FD89A2A20</t>
+  </si>
+  <si>
+    <t>MAtthew Dinen</t>
+  </si>
+  <si>
+    <t>matthew.dinen@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD87CA8C0</t>
+  </si>
+  <si>
+    <t>Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>Dwayne.stallworth@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD89FF040</t>
+  </si>
+  <si>
+    <t>Michael Mosheyev</t>
+  </si>
+  <si>
+    <t>micheal.mosheyev@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A42160</t>
+  </si>
+  <si>
+    <t>Irving Contreras</t>
+  </si>
+  <si>
+    <t>icontreras@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AD2E40</t>
+  </si>
+  <si>
+    <t>Seymour Benn</t>
+  </si>
+  <si>
+    <t>Seymour.benn@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -2008,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,22 +2192,22 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="n"/>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="5" s="8" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="3" t="n"/>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="n"/>
     </row>
@@ -2204,7 +2324,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7" t="n"/>
     </row>
@@ -2219,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7" t="n"/>
     </row>
@@ -2279,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7" t="n"/>
     </row>
@@ -2395,7 +2515,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7" t="n"/>
     </row>
@@ -2470,7 +2590,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="7" t="n"/>
     </row>
@@ -2500,7 +2620,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -2560,7 +2680,7 @@
         <v>103</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="7" t="n"/>
     </row>
@@ -2575,7 +2695,7 @@
         <v>106</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="7" t="n"/>
     </row>
@@ -2695,7 +2815,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="7" t="n"/>
     </row>
@@ -2770,7 +2890,7 @@
         <v>145</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="7" t="n"/>
     </row>
@@ -2815,7 +2935,7 @@
         <v>154</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7" t="n"/>
     </row>
@@ -2905,7 +3025,7 @@
         <v>172</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="7" t="n"/>
     </row>
@@ -3023,7 +3143,7 @@
         <v>196</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3065,7 +3185,7 @@
         <v>205</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3177,7 +3297,7 @@
         <v>229</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3220,6 +3340,206 @@
       </c>
       <c r="D83" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>247</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3251,7 +3571,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="8" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="B1" s="7" t="n"/>
       <c r="C1" s="7" t="n"/>
@@ -3321,7 +3641,7 @@
     <row customHeight="1" ht="17" r="10" s="8" spans="1:5">
       <c r="A10" s="7" t="n"/>
       <c r="B10" s="7">
-        <f>SUM(Sheet!E2:E83)</f>
+        <f>SUM(Sheet!E2:E99)</f>
         <v/>
       </c>
       <c r="C10" s="7" t="n"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="323">
   <si>
     <t>UID</t>
   </si>
@@ -59,7 +64,10 @@
     <t>8FD8940860</t>
   </si>
   <si>
-    <t>David schachner</t>
+    <t>David Schachner</t>
+  </si>
+  <si>
+    <t>david.schachner@jjay.cuny.edu</t>
   </si>
   <si>
     <t>0FD8A9BD80</t>
@@ -86,7 +94,10 @@
     <t>CFD8AA9A20</t>
   </si>
   <si>
-    <t>Randell Holland</t>
+    <t>Rondell Holland</t>
+  </si>
+  <si>
+    <t>rondell.holland@jjay.cuny.edu</t>
   </si>
   <si>
     <t>CFD89A9C80</t>
@@ -95,6 +106,9 @@
     <t>Bryan Williams</t>
   </si>
   <si>
+    <t>bryan.williams@jjay.cuny.edu</t>
+  </si>
+  <si>
     <t>4FD8A85BA0</t>
   </si>
   <si>
@@ -110,12 +124,12 @@
     <t>Paul Fabro</t>
   </si>
   <si>
+    <t>paul.fabro@jjay.cuny.edu</t>
+  </si>
+  <si>
     <t>8A9AB340</t>
   </si>
   <si>
-    <t>gary</t>
-  </si>
-  <si>
     <t>CFD893A460</t>
   </si>
   <si>
@@ -873,6 +887,105 @@
   </si>
   <si>
     <t>megan.eng@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A841E0</t>
+  </si>
+  <si>
+    <t>Sujay Bhaskar KashYap</t>
+  </si>
+  <si>
+    <t>sujay.bhaskarkashyap@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8ADF120</t>
+  </si>
+  <si>
+    <t>8FD8AC1E00</t>
+  </si>
+  <si>
+    <t>8FD8967BC0</t>
+  </si>
+  <si>
+    <t>Israel Matos</t>
+  </si>
+  <si>
+    <t>israel.matos@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8A9E700</t>
+  </si>
+  <si>
+    <t>Nicole Cintron</t>
+  </si>
+  <si>
+    <t>nicole.cintron@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A51D80</t>
+  </si>
+  <si>
+    <t>Miguelina Garcia</t>
+  </si>
+  <si>
+    <t>miguelina.garcia@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AD42A0</t>
+  </si>
+  <si>
+    <t>Covalky Pena</t>
+  </si>
+  <si>
+    <t>covalky.pena@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A00C40</t>
+  </si>
+  <si>
+    <t>nadinemay espinosa</t>
+  </si>
+  <si>
+    <t>nadinemay.espinosa@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A0E820</t>
+  </si>
+  <si>
+    <t>SAMUEL TORRES</t>
+  </si>
+  <si>
+    <t>SAMUEL.TORRES@JJAY.CUNY.EDU</t>
+  </si>
+  <si>
+    <t>8FD8AC5D40</t>
+  </si>
+  <si>
+    <t>Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>rudelina.calcano@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8ACC280</t>
+  </si>
+  <si>
+    <t>Emmanuel Macintosh</t>
+  </si>
+  <si>
+    <t>emmanuel.mcintosh@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD894EAC0</t>
+  </si>
+  <si>
+    <t>Sade Thomas</t>
+  </si>
+  <si>
+    <t>sade.thomas@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AE0B20</t>
   </si>
   <si>
     <t>Month</t>
@@ -881,45 +994,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="18"/>
     </font>
     <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="00000000"/>
-      <sz val="15"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -956,25 +1055,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="17" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2150,35 +2246,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IL113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="20"/>
-    <col customWidth="1" max="3" min="2" style="4" width="30"/>
-    <col customWidth="1" max="3" min="3" style="4" width="30"/>
-    <col customWidth="1" max="238" min="4" style="4" width="20"/>
-    <col customWidth="1" max="6" min="6" style="4" width="20"/>
-    <col customWidth="1" max="7" min="7" style="4" width="20"/>
+    <col min="1" max="1" width="20" style="4" customWidth="1"/>
+    <col min="2" max="3" width="30" style="4" customWidth="1"/>
+    <col min="4" max="246" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="23" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2187,24 +2276,18 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:7">
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:7">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2214,11 +2297,11 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:7">
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2228,1359 +2311,1527 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:7">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="3" t="n">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="n">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
+    <row r="13" spans="1:5" ht="17" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n">
+    <row r="14" spans="1:5" ht="17" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
+    <row r="21" spans="1:4" ht="17" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="n">
+    <row r="22" spans="1:4" ht="17" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2">
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="n">
+    <row r="28" spans="1:4" ht="17" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
+    </row>
+    <row r="30" spans="1:4" ht="17" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+    </row>
+    <row r="34" spans="1:4" ht="17" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="2">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="n">
+    <row r="42" spans="1:4" ht="17" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B104" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" t="s">
+        <v>319</v>
+      </c>
+      <c r="C112" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B72" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>214</v>
-      </c>
-      <c r="B75" t="s">
-        <v>215</v>
-      </c>
-      <c r="C75" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" t="s">
-        <v>228</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" t="s">
-        <v>233</v>
-      </c>
-      <c r="C81" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>238</v>
-      </c>
-      <c r="B83" t="s">
-        <v>239</v>
-      </c>
-      <c r="C83" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>241</v>
-      </c>
-      <c r="B84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>244</v>
-      </c>
-      <c r="B85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>247</v>
-      </c>
-      <c r="B86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" t="s">
-        <v>249</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>250</v>
-      </c>
-      <c r="B87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>259</v>
-      </c>
-      <c r="B90" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>265</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>267</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>268</v>
-      </c>
-      <c r="B95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>277</v>
-      </c>
-      <c r="B98" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>280</v>
-      </c>
-      <c r="B99" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" t="s">
-        <v>282</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" t="s">
-        <v>284</v>
-      </c>
-      <c r="C100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="25"/>
+    <col min="1" max="1" width="25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="19" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="n">
-        <v>42583</v>
-      </c>
-      <c r="B2" t="n">
-        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3588,11 +3839,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!G2:G100)</f>
-        <v/>
+        <f>SUM(Sheet!E2:E113)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="4" s="4" spans="1:5">
@@ -2491,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="6" s="4" spans="1:5">
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="11" s="4" spans="1:5">
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="14" s="4" spans="1:5">
@@ -2634,7 +2634,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:5">
@@ -2651,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="16" s="4" spans="1:5">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="18" s="4" spans="1:5">
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="20" s="4" spans="1:5">
@@ -2841,6 +2841,9 @@
       <c r="D27" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="28" s="4" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -3497,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3737,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3922,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4074,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="370">
   <si>
     <t>UID</t>
   </si>
@@ -30,6 +35,9 @@
   </si>
   <si>
     <t>September 2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>8FD8AAE4A0</t>
@@ -1127,45 +1135,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="18"/>
     </font>
     <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="00000000"/>
-      <sz val="15"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1202,24 +1196,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2395,35 +2389,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IE131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="20"/>
-    <col customWidth="1" max="3" min="2" style="4" width="30"/>
-    <col customWidth="1" max="3" min="3" style="4" width="30"/>
-    <col customWidth="1" max="246" min="4" style="4" width="20"/>
-    <col customWidth="1" max="5" min="5" style="4" width="20"/>
-    <col customWidth="1" max="6" min="6" style="4" width="20"/>
+    <col min="1" max="1" width="20" style="4" customWidth="1"/>
+    <col min="2" max="3" width="30" style="4" customWidth="1"/>
+    <col min="4" max="239" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="23" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2432,2011 +2419,2015 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="17" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:5">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="17" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="n">
+    </row>
+    <row r="28" spans="1:5" ht="17" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="2">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="n">
+    <row r="41" spans="1:5" ht="17" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E45">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="46" spans="1:5" ht="17" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" t="n">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="2">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" t="n">
+    </row>
+    <row r="57" spans="1:5" ht="17" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="2">
         <v>3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" t="n">
+        <v>198</v>
+      </c>
+      <c r="D67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" t="n">
+        <v>201</v>
+      </c>
+      <c r="D68">
         <v>4</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" t="n">
+        <v>204</v>
+      </c>
+      <c r="D69">
         <v>8</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" t="n">
+        <v>207</v>
+      </c>
+      <c r="D70">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" t="n">
+        <v>210</v>
+      </c>
+      <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" t="n">
+        <v>213</v>
+      </c>
+      <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" t="n">
+        <v>216</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" t="n">
+        <v>219</v>
+      </c>
+      <c r="D74">
         <v>8</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" t="n">
+        <v>222</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" t="n">
+        <v>225</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" t="n">
+        <v>228</v>
+      </c>
+      <c r="D77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" t="n">
+        <v>231</v>
+      </c>
+      <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" t="n">
+        <v>234</v>
+      </c>
+      <c r="D79">
         <v>3</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" t="n">
+        <v>237</v>
+      </c>
+      <c r="D80">
         <v>3</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" t="n">
+        <v>240</v>
+      </c>
+      <c r="D81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="n">
+        <v>243</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
+        <v>246</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
+        <v>249</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
-      </c>
-      <c r="D85" t="n">
+        <v>252</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" t="n">
+        <v>255</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="n">
+        <v>258</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
+        <v>261</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" t="n">
+        <v>264</v>
+      </c>
+      <c r="D89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
-      </c>
-      <c r="D90" t="n">
+        <v>267</v>
+      </c>
+      <c r="D90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" t="n">
+        <v>270</v>
+      </c>
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" t="n">
+        <v>271</v>
+      </c>
+      <c r="D92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>271</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
+        <v>272</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" t="n">
+        <v>273</v>
+      </c>
+      <c r="D94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" t="n">
+        <v>276</v>
+      </c>
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" t="n">
+        <v>279</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
+        <v>282</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" t="n">
+        <v>285</v>
+      </c>
+      <c r="D98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" t="n">
+        <v>288</v>
+      </c>
+      <c r="D99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" t="n">
+        <v>291</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="n">
+        <v>294</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>294</v>
-      </c>
-      <c r="D102" t="n">
+        <v>295</v>
+      </c>
+      <c r="D102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" t="n">
+        <v>298</v>
+      </c>
+      <c r="D103">
         <v>4</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C104" t="s">
-        <v>300</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="n">
+        <v>301</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C105" t="s">
-        <v>303</v>
-      </c>
-      <c r="D105" t="n">
+        <v>304</v>
+      </c>
+      <c r="D105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2</v>
-      </c>
-      <c r="E106" t="n">
+        <v>307</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C107" t="s">
-        <v>309</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="n">
+        <v>310</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" t="n">
+        <v>313</v>
+      </c>
+      <c r="D108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
-      </c>
-      <c r="D109" t="n">
+        <v>316</v>
+      </c>
+      <c r="D109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2</v>
-      </c>
-      <c r="E110" t="n">
+        <v>319</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C111" t="s">
-        <v>321</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
+        <v>322</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B112" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" t="n">
+        <v>325</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B113" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="n">
+        <v>328</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
         <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>330</v>
-      </c>
-      <c r="E114" t="n">
+        <v>331</v>
+      </c>
+      <c r="E114">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>331</v>
-      </c>
-      <c r="E115" t="n">
+        <v>332</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>332</v>
-      </c>
-      <c r="E116" t="n">
+        <v>333</v>
+      </c>
+      <c r="E116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>333</v>
-      </c>
-      <c r="E117" t="n">
+        <v>334</v>
+      </c>
+      <c r="E117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
-      </c>
-      <c r="E118" t="n">
+        <v>337</v>
+      </c>
+      <c r="E118">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>337</v>
-      </c>
-      <c r="E119" t="n">
+        <v>338</v>
+      </c>
+      <c r="E119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>338</v>
-      </c>
-      <c r="E120" t="n">
+        <v>339</v>
+      </c>
+      <c r="E120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>339</v>
-      </c>
-      <c r="E121" t="n">
+        <v>340</v>
+      </c>
+      <c r="E121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
-        <v>342</v>
-      </c>
-      <c r="E122" t="n">
+        <v>343</v>
+      </c>
+      <c r="E122">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>343</v>
-      </c>
-      <c r="E123" t="n">
+        <v>344</v>
+      </c>
+      <c r="E123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
-      </c>
-      <c r="E124" t="n">
+        <v>347</v>
+      </c>
+      <c r="E124">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
-      </c>
-      <c r="E125" t="n">
+        <v>350</v>
+      </c>
+      <c r="E125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>352</v>
-      </c>
-      <c r="E126" t="n">
+        <v>353</v>
+      </c>
+      <c r="E126">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
-      </c>
-      <c r="E127" t="n">
+        <v>356</v>
+      </c>
+      <c r="E127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C128" t="s">
-        <v>358</v>
-      </c>
-      <c r="E128" t="n">
+        <v>359</v>
+      </c>
+      <c r="E128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C129" t="s">
-        <v>361</v>
-      </c>
-      <c r="E129" t="n">
+        <v>362</v>
+      </c>
+      <c r="E129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
-      </c>
-      <c r="E130" t="n">
+        <v>365</v>
+      </c>
+      <c r="E130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
-      </c>
-      <c r="E131" t="n">
+        <v>368</v>
+      </c>
+      <c r="E131">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="25"/>
+    <col min="1" max="1" width="25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
+    <row r="1" spans="1:2" ht="19" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>286</v>
+      <c r="A2" s="6">
+        <v>42583</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4444,11 +4435,15 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E131)</f>
-        <v/>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>UID</t>
   </si>
@@ -1127,6 +1122,15 @@
   </si>
   <si>
     <t>raquel.taveras@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8AAA760</t>
+  </si>
+  <si>
+    <t>Antonina rf6</t>
+  </si>
+  <si>
+    <t>jjay</t>
   </si>
   <si>
     <t>Month</t>
@@ -1135,31 +1139,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
     </font>
     <font>
-      <i/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1196,24 +1214,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="17" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2389,28 +2409,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IE131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="3" width="30" style="4" customWidth="1"/>
-    <col min="4" max="239" width="20" style="4" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="20"/>
+    <col customWidth="1" max="3" min="2" style="4" width="30"/>
+    <col customWidth="1" max="3" min="3" style="4" width="30"/>
+    <col customWidth="1" max="239" min="4" style="4" width="20"/>
+    <col customWidth="1" max="6" min="6" style="4" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="23" r="1" s="4" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2423,20 +2449,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="2" s="4" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="F2" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="3" s="4" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2446,14 +2472,14 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="4" s="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2463,14 +2489,14 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1">
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="5" s="4" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2480,14 +2506,14 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="6" s="4" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2497,26 +2523,26 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="7" s="4" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="8" s="4" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2526,12 +2552,12 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8">
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="9" s="4" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2541,11 +2567,11 @@
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="10" s="4" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2555,14 +2581,14 @@
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="11" s="4" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2572,14 +2598,14 @@
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="12" s="4" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2589,14 +2615,14 @@
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="13" s="4" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2606,14 +2632,14 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="14" s="4" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2623,14 +2649,17 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1">
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="15" s="4" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,14 +2669,14 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="16" s="4" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2657,14 +2686,14 @@
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" customHeight="1">
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="17" s="4" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2674,14 +2703,14 @@
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="18" s="4" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2691,14 +2720,14 @@
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="19" s="4" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2708,24 +2737,24 @@
       <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="20" s="4" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" customHeight="1">
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="21" s="4" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2735,14 +2764,14 @@
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="22" s="4" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2752,14 +2781,14 @@
       <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="23" s="4" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2769,14 +2798,14 @@
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="24" s="4" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2786,11 +2815,11 @@
       <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="25" s="4" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2800,14 +2829,14 @@
       <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" customHeight="1">
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="26" s="4" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2817,11 +2846,11 @@
       <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" customHeight="1">
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="27" s="4" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2831,11 +2860,11 @@
       <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="28" s="4" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,14 +2874,14 @@
       <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" customHeight="1">
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="29" s="4" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2862,14 +2891,14 @@
       <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="30" s="4" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -2879,14 +2908,14 @@
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="31" s="4" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2896,14 +2925,14 @@
       <c r="C31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="32" s="4" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2913,14 +2942,14 @@
       <c r="C32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="33" s="4" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -2930,11 +2959,11 @@
       <c r="C33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" customHeight="1">
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="34" s="4" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2944,14 +2973,14 @@
       <c r="C34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" customHeight="1">
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="35" s="4" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2961,14 +2990,14 @@
       <c r="C35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" customHeight="1">
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="36" s="4" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2978,14 +3007,14 @@
       <c r="C36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="37" s="4" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2995,14 +3024,14 @@
       <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="38" s="4" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -3012,14 +3041,14 @@
       <c r="C38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" customHeight="1">
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="39" s="4" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -3029,14 +3058,14 @@
       <c r="C39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="40" s="4" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -3046,14 +3075,14 @@
       <c r="C40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="41" s="4" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -3063,14 +3092,14 @@
       <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" customHeight="1">
+      <c r="D41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="42" s="4" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3080,11 +3109,11 @@
       <c r="C42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="43" s="4" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -3094,11 +3123,11 @@
       <c r="C43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="44" s="4" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -3108,11 +3137,11 @@
       <c r="C44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" customHeight="1">
+      <c r="D44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="45" s="4" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
@@ -3122,14 +3151,14 @@
       <c r="C45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="46" s="4" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -3139,11 +3168,11 @@
       <c r="C46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" customHeight="1">
+      <c r="D46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="47" s="4" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -3153,14 +3182,14 @@
       <c r="C47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" customHeight="1">
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="48" s="4" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -3170,14 +3199,14 @@
       <c r="C48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" customHeight="1">
+      <c r="D48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="49" s="4" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -3187,14 +3216,14 @@
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" customHeight="1">
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="50" s="4" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>145</v>
       </c>
@@ -3204,14 +3233,14 @@
       <c r="C50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" customHeight="1">
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="51" s="4" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -3221,14 +3250,14 @@
       <c r="C51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" customHeight="1">
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="52" s="4" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -3238,14 +3267,14 @@
       <c r="C52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="53" s="4" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -3255,11 +3284,11 @@
       <c r="C53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" customHeight="1">
+      <c r="D53" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="54" s="4" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3269,14 +3298,14 @@
       <c r="C54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" customHeight="1">
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="55" s="4" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -3286,14 +3315,14 @@
       <c r="C55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="56" s="4" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
@@ -3303,11 +3332,11 @@
       <c r="C56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" customHeight="1">
+    <row customHeight="1" ht="17" r="57" s="4" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3317,14 +3346,14 @@
       <c r="C57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" customHeight="1">
+      <c r="D57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="58" s="4" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -3334,11 +3363,11 @@
       <c r="C58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" customHeight="1">
+      <c r="D58" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="59" s="4" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
@@ -3348,14 +3377,14 @@
       <c r="C59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" customHeight="1">
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="60" s="4" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
@@ -3365,11 +3394,11 @@
       <c r="C60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" customHeight="1">
+      <c r="D60" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="61" s="4" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>178</v>
       </c>
@@ -3379,14 +3408,14 @@
       <c r="C61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" customHeight="1">
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="62" s="4" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>181</v>
       </c>
@@ -3396,11 +3425,11 @@
       <c r="C62" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" customHeight="1">
+      <c r="D62" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="63" s="4" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3410,11 +3439,11 @@
       <c r="C63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" customHeight="1">
+      <c r="D63" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="64" s="4" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
@@ -3424,14 +3453,14 @@
       <c r="C64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" customHeight="1">
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="65" s="4" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>190</v>
       </c>
@@ -3441,11 +3470,11 @@
       <c r="C65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1">
+      <c r="D65" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="66" s="4" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -3455,14 +3484,14 @@
       <c r="C66" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -3472,11 +3501,11 @@
       <c r="C67" t="s">
         <v>198</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -3486,14 +3515,14 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3503,14 +3532,14 @@
       <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -3520,11 +3549,11 @@
       <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -3534,14 +3563,14 @@
       <c r="C71" t="s">
         <v>210</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>3</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -3551,14 +3580,14 @@
       <c r="C72" t="s">
         <v>213</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>3</v>
       </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -3568,14 +3597,14 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>3</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -3585,14 +3614,14 @@
       <c r="C74" t="s">
         <v>219</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>8</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -3602,11 +3631,11 @@
       <c r="C75" t="s">
         <v>222</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -3616,11 +3645,11 @@
       <c r="C76" t="s">
         <v>225</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -3630,11 +3659,11 @@
       <c r="C77" t="s">
         <v>228</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -3644,14 +3673,14 @@
       <c r="C78" t="s">
         <v>231</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -3661,14 +3690,14 @@
       <c r="C79" t="s">
         <v>234</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>3</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -3678,14 +3707,14 @@
       <c r="C80" t="s">
         <v>237</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>3</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>238</v>
       </c>
@@ -3695,11 +3724,11 @@
       <c r="C81" t="s">
         <v>240</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -3709,14 +3738,14 @@
       <c r="C82" t="s">
         <v>243</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -3726,14 +3755,14 @@
       <c r="C83" t="s">
         <v>246</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -3743,14 +3772,14 @@
       <c r="C84" t="s">
         <v>249</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -3760,11 +3789,11 @@
       <c r="C85" t="s">
         <v>252</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -3774,11 +3803,11 @@
       <c r="C86" t="s">
         <v>255</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -3788,14 +3817,14 @@
       <c r="C87" t="s">
         <v>258</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -3805,14 +3834,14 @@
       <c r="C88" t="s">
         <v>261</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -3822,11 +3851,11 @@
       <c r="C89" t="s">
         <v>264</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -3836,11 +3865,11 @@
       <c r="C90" t="s">
         <v>267</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>268</v>
       </c>
@@ -3850,41 +3879,41 @@
       <c r="C91" t="s">
         <v>270</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>4</v>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>271</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>272</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>273</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>274</v>
       </c>
@@ -3894,14 +3923,14 @@
       <c r="C95" t="s">
         <v>276</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>277</v>
       </c>
@@ -3911,14 +3940,14 @@
       <c r="C96" t="s">
         <v>279</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>280</v>
       </c>
@@ -3928,14 +3957,14 @@
       <c r="C97" t="s">
         <v>282</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>283</v>
       </c>
@@ -3945,11 +3974,11 @@
       <c r="C98" t="s">
         <v>285</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -3959,11 +3988,11 @@
       <c r="C99" t="s">
         <v>288</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>289</v>
       </c>
@@ -3973,14 +4002,14 @@
       <c r="C100" t="s">
         <v>291</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>3</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>292</v>
       </c>
@@ -3990,22 +4019,22 @@
       <c r="C101" t="s">
         <v>294</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>295</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -4015,14 +4044,14 @@
       <c r="C103" t="s">
         <v>298</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>4</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>299</v>
       </c>
@@ -4032,14 +4061,14 @@
       <c r="C104" t="s">
         <v>301</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -4049,11 +4078,11 @@
       <c r="C105" t="s">
         <v>304</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -4063,14 +4092,14 @@
       <c r="C106" t="s">
         <v>307</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -4080,14 +4109,14 @@
       <c r="C107" t="s">
         <v>310</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>311</v>
       </c>
@@ -4097,11 +4126,11 @@
       <c r="C108" t="s">
         <v>313</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -4111,11 +4140,11 @@
       <c r="C109" t="s">
         <v>316</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -4125,14 +4154,14 @@
       <c r="C110" t="s">
         <v>319</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -4142,14 +4171,14 @@
       <c r="C111" t="s">
         <v>322</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>323</v>
       </c>
@@ -4159,14 +4188,14 @@
       <c r="C112" t="s">
         <v>325</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>326</v>
       </c>
@@ -4176,14 +4205,14 @@
       <c r="C113" t="s">
         <v>328</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -4193,35 +4222,35 @@
       <c r="C114" t="s">
         <v>331</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>332</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>333</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>334</v>
       </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>335</v>
       </c>
@@ -4231,35 +4260,35 @@
       <c r="C118" t="s">
         <v>337</v>
       </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>338</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>339</v>
       </c>
-      <c r="E120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>340</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>341</v>
       </c>
@@ -4269,19 +4298,19 @@
       <c r="C122" t="s">
         <v>343</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>344</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>345</v>
       </c>
@@ -4291,11 +4320,11 @@
       <c r="C124" t="s">
         <v>347</v>
       </c>
-      <c r="E124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>348</v>
       </c>
@@ -4305,11 +4334,11 @@
       <c r="C125" t="s">
         <v>350</v>
       </c>
-      <c r="E125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>351</v>
       </c>
@@ -4319,11 +4348,11 @@
       <c r="C126" t="s">
         <v>353</v>
       </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>354</v>
       </c>
@@ -4333,11 +4362,11 @@
       <c r="C127" t="s">
         <v>356</v>
       </c>
-      <c r="E127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>357</v>
       </c>
@@ -4347,11 +4376,11 @@
       <c r="C128" t="s">
         <v>359</v>
       </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>360</v>
       </c>
@@ -4361,11 +4390,11 @@
       <c r="C129" t="s">
         <v>362</v>
       </c>
-      <c r="E129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>363</v>
       </c>
@@ -4375,11 +4404,11 @@
       <c r="C130" t="s">
         <v>365</v>
       </c>
-      <c r="E130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>366</v>
       </c>
@@ -4389,44 +4418,57 @@
       <c r="C131" t="s">
         <v>368</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" style="4" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>369</v>
+    <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2" s="6" t="n">
         <v>42583</v>
       </c>
     </row>
@@ -4435,15 +4477,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>288</v>
+        <f>SUM(Sheet!F2:F132)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -7128,23 +7128,36 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>286</v>
+      <c r="B2">
+        <f>SUM(Sheet!D2:D222)</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <f>SUM(Sheet!E2:E222)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <f>SUM(Sheet!F2:F222)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5">
+        <f>SUM(Sheet!G2:G222)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
   <si>
     <t>UID</t>
   </si>
@@ -1791,6 +1791,15 @@
   </si>
   <si>
     <t>raymond.huang@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8ABF6C0</t>
+  </si>
+  <si>
+    <t>Evony Morel</t>
+  </si>
+  <si>
+    <t>evoney.morel@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -3072,7 +3081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3381,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -4702,6 +4711,9 @@
       <c r="F77" t="n">
         <v>4</v>
       </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -6212,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6763,6 +6775,9 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
@@ -7091,6 +7106,20 @@
       </c>
       <c r="H222" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>592</v>
+      </c>
+      <c r="B223" t="s">
+        <v>593</v>
+      </c>
+      <c r="C223" t="s">
+        <v>594</v>
+      </c>
+      <c r="I223" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7121,7 +7150,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7129,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D222)</f>
+        <f>SUM(Sheet!D2:D223)</f>
         <v/>
       </c>
     </row>
@@ -7138,7 +7167,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E222)</f>
+        <f>SUM(Sheet!E2:E223)</f>
         <v/>
       </c>
     </row>
@@ -7147,7 +7176,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F222)</f>
+        <f>SUM(Sheet!F2:F223)</f>
         <v/>
       </c>
     </row>
@@ -7156,7 +7185,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G222)</f>
+        <f>SUM(Sheet!G2:G223)</f>
         <v/>
       </c>
     </row>
@@ -7165,7 +7194,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H222)</f>
+        <f>SUM(Sheet!H2:H223)</f>
         <v/>
       </c>
     </row>
@@ -7174,7 +7203,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I222)</f>
+        <f>SUM(Sheet!I2:I223)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
   <si>
     <t>UID</t>
   </si>
@@ -1257,6 +1257,12 @@
   </si>
   <si>
     <t>CFD8A948E0</t>
+  </si>
+  <si>
+    <t>Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>Vanessa.cordero@jjay.cuny.edu</t>
   </si>
   <si>
     <t>CFD899AA20</t>
@@ -3390,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -3546,6 +3552,9 @@
       <c r="H21" t="n">
         <v>7</v>
       </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
       <c r="A22" s="1" t="s">
@@ -4194,7 +4203,7 @@
         <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="53" s="4" spans="1:9">
@@ -5955,6 +5964,12 @@
       <c r="A141" t="s">
         <v>413</v>
       </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" t="s">
+        <v>415</v>
+      </c>
       <c r="E141" t="n">
         <v>4</v>
       </c>
@@ -5968,12 +5983,12 @@
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
@@ -5981,13 +5996,13 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
@@ -5995,13 +6010,13 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B144" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C144" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
@@ -6009,13 +6024,13 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
@@ -6023,13 +6038,13 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -6037,13 +6052,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B147" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C147" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -6054,13 +6069,13 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C148" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
@@ -6071,13 +6086,13 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B149" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C149" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
@@ -6085,13 +6100,13 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
@@ -6099,13 +6114,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
@@ -6113,13 +6128,13 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C152" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
@@ -6127,13 +6142,13 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C153" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
@@ -6141,13 +6156,13 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B154" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C154" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -6155,13 +6170,13 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -6178,7 +6193,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -6186,13 +6201,13 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B157" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C157" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -6203,13 +6218,13 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -6224,18 +6239,18 @@
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B159" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C159" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -6252,13 +6267,13 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
@@ -6266,13 +6281,13 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B161" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C161" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E161" t="n">
         <v>2</v>
@@ -6280,13 +6295,13 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B162" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -6303,13 +6318,13 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B163" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C163" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -6320,13 +6335,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B164" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C164" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -6343,7 +6358,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -6351,13 +6366,13 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B166" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C166" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -6368,7 +6383,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -6379,13 +6394,13 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C168" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -6399,13 +6414,13 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B169" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C169" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E169" t="n">
         <v>2</v>
@@ -6419,13 +6434,13 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C170" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
@@ -6433,7 +6448,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B171" t="s">
         <v>128</v>
@@ -6453,13 +6468,13 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B172" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C172" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E172" t="n">
         <v>2</v>
@@ -6470,13 +6485,13 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B173" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C173" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -6490,10 +6505,10 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B174" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C174" t="s">
         <v>66</v>
@@ -6513,13 +6528,13 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C175" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -6536,7 +6551,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -6547,7 +6562,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -6555,13 +6570,13 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B178" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
@@ -6569,7 +6584,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -6577,13 +6592,13 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B180" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C180" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
@@ -6591,7 +6606,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -6599,13 +6614,13 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B182" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C182" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -6622,7 +6637,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -6636,7 +6651,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6647,13 +6662,13 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B185" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C185" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -6661,7 +6676,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -6669,13 +6684,13 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B187" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C187" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
@@ -6683,7 +6698,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -6691,13 +6706,13 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B189" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C189" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -6711,7 +6726,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -6719,13 +6734,13 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B191" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C191" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
@@ -6733,13 +6748,13 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B192" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C192" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -6747,7 +6762,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6758,7 +6773,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B194" t="s">
         <v>29</v>
@@ -6781,13 +6796,13 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B195" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C195" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -6798,13 +6813,13 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B196" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C196" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G196" t="n">
         <v>23</v>
@@ -6815,13 +6830,13 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B197" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C197" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G197" t="n">
         <v>9</v>
@@ -6832,13 +6847,13 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B198" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C198" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -6846,7 +6861,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -6857,7 +6872,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -6865,13 +6880,13 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C201" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -6879,13 +6894,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B202" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C202" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -6893,13 +6908,13 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C203" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -6910,7 +6925,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -6918,7 +6933,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -6926,7 +6941,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -6934,7 +6949,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -6942,13 +6957,13 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B208" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C208" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -6959,13 +6974,13 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C209" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
@@ -6973,7 +6988,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -6981,13 +6996,13 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C211" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -6995,7 +7010,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B212" t="s">
         <v>49</v>
@@ -7009,7 +7024,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -7017,7 +7032,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
@@ -7025,7 +7040,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
@@ -7033,10 +7048,10 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B216" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
@@ -7044,7 +7059,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
@@ -7052,7 +7067,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -7060,13 +7075,13 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B219" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C219" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
@@ -7074,13 +7089,13 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B220" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C220" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H220" t="n">
         <v>3</v>
@@ -7088,7 +7103,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -7096,13 +7111,13 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B222" t="s">
         <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
@@ -7110,13 +7125,13 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B223" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C223" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
@@ -7150,7 +7165,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="607">
   <si>
     <t>UID</t>
   </si>
@@ -1806,6 +1806,33 @@
   </si>
   <si>
     <t>evoney.morel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AB1960</t>
+  </si>
+  <si>
+    <t>Alondra Rangel</t>
+  </si>
+  <si>
+    <t>alondra.rangel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AB6640</t>
+  </si>
+  <si>
+    <t>Victoria Soobryan</t>
+  </si>
+  <si>
+    <t>victoria.soobryan@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8ADC440</t>
+  </si>
+  <si>
+    <t>Jorge Delgado</t>
+  </si>
+  <si>
+    <t>Jorge.delgado@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -3087,7 +3114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3227,6 +3254,9 @@
       <c r="G6" t="n">
         <v>6</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="7" s="4" spans="1:9">
       <c r="A7" s="1" t="s">
@@ -3396,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -3553,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
@@ -3592,6 +3622,9 @@
       <c r="G23" t="n">
         <v>9</v>
       </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="24" s="4" spans="1:9">
       <c r="A24" s="1" t="s">
@@ -4203,7 +4236,7 @@
         <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="53" s="4" spans="1:9">
@@ -4634,6 +4667,9 @@
       <c r="H73" t="n">
         <v>4</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -4964,6 +5000,9 @@
       <c r="H88" t="n">
         <v>13</v>
       </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -5242,6 +5281,9 @@
       <c r="G101" t="n">
         <v>1</v>
       </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
@@ -5449,6 +5491,9 @@
       <c r="F110" t="n">
         <v>1</v>
       </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -5983,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6239,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7135,6 +7180,48 @@
       </c>
       <c r="I223" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>597</v>
+      </c>
+      <c r="B224" t="s">
+        <v>598</v>
+      </c>
+      <c r="C224" t="s">
+        <v>599</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>600</v>
+      </c>
+      <c r="B225" t="s">
+        <v>601</v>
+      </c>
+      <c r="C225" t="s">
+        <v>602</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>603</v>
+      </c>
+      <c r="B226" t="s">
+        <v>604</v>
+      </c>
+      <c r="C226" t="s">
+        <v>605</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7165,7 +7252,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7173,7 +7260,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D223)</f>
+        <f>SUM(Sheet!D2:D226)</f>
         <v/>
       </c>
     </row>
@@ -7182,7 +7269,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E223)</f>
+        <f>SUM(Sheet!E2:E226)</f>
         <v/>
       </c>
     </row>
@@ -7191,7 +7278,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F223)</f>
+        <f>SUM(Sheet!F2:F226)</f>
         <v/>
       </c>
     </row>
@@ -7200,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G223)</f>
+        <f>SUM(Sheet!G2:G226)</f>
         <v/>
       </c>
     </row>
@@ -7209,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H223)</f>
+        <f>SUM(Sheet!H2:H226)</f>
         <v/>
       </c>
     </row>
@@ -7218,7 +7305,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I223)</f>
+        <f>SUM(Sheet!I2:I226)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -3623,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="24" s="4" spans="1:9">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly_STAT" sheetId="2" state="visible" r:id="rId2"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1843,7 +1843,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1874,6 +1874,13 @@
       <family val="2"/>
       <i val="1"/>
       <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <sz val="18"/>
+    </font>
+    <font>
+      <i val="1"/>
       <sz val="15"/>
     </font>
   </fonts>
@@ -1916,92 +1923,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3120,7 +3060,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="4" width="20"/>
     <col customWidth="1" max="3" min="2" style="4" width="30"/>
@@ -3134,13 +3074,13 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" s="4" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3426,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -7231,7 +7171,12 @@
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -7248,13 +7193,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="4" width="25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>606</v>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="629">
   <si>
     <t>UID</t>
   </si>
@@ -1574,6 +1574,12 @@
     <t>CFD8AFA4C0</t>
   </si>
   <si>
+    <t>arango juan</t>
+  </si>
+  <si>
+    <t>arango.juan@jjay.cuny.edu</t>
+  </si>
+  <si>
     <t>8FD89F60C0</t>
   </si>
   <si>
@@ -1833,6 +1839,66 @@
   </si>
   <si>
     <t>Jorge.delgado@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B42CC0</t>
+  </si>
+  <si>
+    <t>amin shahid</t>
+  </si>
+  <si>
+    <t>amin.shahid@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A3A820</t>
+  </si>
+  <si>
+    <t>cowell,truman</t>
+  </si>
+  <si>
+    <t>cowell.truman@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8B367A0</t>
+  </si>
+  <si>
+    <t>4FD8B36A40</t>
+  </si>
+  <si>
+    <t>Jean Augustin</t>
+  </si>
+  <si>
+    <t>Jean.Augustine@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B45C20</t>
+  </si>
+  <si>
+    <t>8FD8B68DE0</t>
+  </si>
+  <si>
+    <t>Miguel Martillo</t>
+  </si>
+  <si>
+    <t>miguel.martillo@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8B65040</t>
+  </si>
+  <si>
+    <t>CFD8AEC840</t>
+  </si>
+  <si>
+    <t>8FD8ADBD20</t>
+  </si>
+  <si>
+    <t>8FD8A91340</t>
+  </si>
+  <si>
+    <t>Jesse Silkworth</t>
+  </si>
+  <si>
+    <t>jesse,silkworth@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -3114,7 +3180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3255,7 +3321,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="7" s="4" spans="1:9">
@@ -3356,6 +3422,9 @@
       <c r="H11" t="n">
         <v>12</v>
       </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="12" s="4" spans="1:9">
       <c r="A12" s="1" t="s">
@@ -3382,6 +3451,9 @@
       <c r="H12" t="n">
         <v>8</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="13" s="4" spans="1:9">
       <c r="A13" s="1" t="s">
@@ -3426,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -3454,6 +3526,9 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="16" s="4" spans="1:9">
       <c r="A16" s="1" t="s">
@@ -3583,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
@@ -3623,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="24" s="4" spans="1:9">
@@ -3823,6 +3898,9 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="33" s="4" spans="1:9">
       <c r="A33" s="1" t="s">
@@ -3926,6 +4004,9 @@
       <c r="H37" t="n">
         <v>3</v>
       </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="38" s="4" spans="1:9">
       <c r="A38" s="1" t="s">
@@ -4004,6 +4085,9 @@
       <c r="H40" t="n">
         <v>4</v>
       </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="41" s="4" spans="1:9">
       <c r="A41" s="1" t="s">
@@ -4601,6 +4685,9 @@
       <c r="G70" t="n">
         <v>5</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -4644,6 +4731,9 @@
       <c r="H72" t="n">
         <v>8</v>
       </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -4814,6 +4904,9 @@
       <c r="H79" t="n">
         <v>4</v>
       </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
@@ -5187,6 +5280,9 @@
       <c r="H96" t="n">
         <v>8</v>
       </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
@@ -5261,6 +5357,9 @@
       <c r="G100" t="n">
         <v>4</v>
       </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
@@ -5313,6 +5412,9 @@
       <c r="H102" t="n">
         <v>4</v>
       </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
@@ -5495,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5569,6 +5671,9 @@
       <c r="H113" t="n">
         <v>5</v>
       </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -6031,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6238,6 +6343,9 @@
       <c r="H155" t="n">
         <v>13</v>
       </c>
+      <c r="I155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
@@ -6287,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6596,6 +6704,9 @@
       <c r="H175" t="n">
         <v>4</v>
       </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
@@ -6680,13 +6791,19 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>518</v>
       </c>
+      <c r="B183" t="s">
+        <v>519</v>
+      </c>
+      <c r="C183" t="s">
+        <v>520</v>
+      </c>
       <c r="F183" t="n">
         <v>4</v>
       </c>
@@ -6696,27 +6813,33 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B185" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C185" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -6724,7 +6847,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -6732,13 +6855,13 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B187" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C187" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
@@ -6746,7 +6869,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -6754,13 +6877,13 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B189" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C189" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -6770,11 +6893,14 @@
       </c>
       <c r="H189" t="n">
         <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -6782,13 +6908,13 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B191" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C191" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
@@ -6796,13 +6922,13 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B192" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C192" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -6810,7 +6936,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6821,7 +6947,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B194" t="s">
         <v>29</v>
@@ -6839,18 +6965,18 @@
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B195" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C195" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -6861,13 +6987,13 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B196" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C196" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G196" t="n">
         <v>23</v>
@@ -6878,13 +7004,13 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B197" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C197" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G197" t="n">
         <v>9</v>
@@ -6892,16 +7018,19 @@
       <c r="H197" t="n">
         <v>1</v>
       </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B198" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C198" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -6909,7 +7038,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -6917,10 +7046,13 @@
       <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -6928,13 +7060,13 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B201" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C201" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -6942,13 +7074,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B202" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C202" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -6956,13 +7088,13 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B203" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C203" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -6973,7 +7105,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -6981,7 +7113,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -6989,7 +7121,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -6997,7 +7129,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7005,13 +7137,13 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B208" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C208" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7022,13 +7154,13 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C209" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
@@ -7036,7 +7168,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7044,13 +7176,13 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B211" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C211" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -7058,7 +7190,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B212" t="s">
         <v>49</v>
@@ -7072,7 +7204,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -7080,7 +7212,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
@@ -7088,7 +7220,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
@@ -7096,10 +7228,10 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B216" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
@@ -7107,7 +7239,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
@@ -7115,7 +7247,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
@@ -7123,13 +7255,13 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B219" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C219" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
@@ -7137,13 +7269,13 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B220" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C220" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H220" t="n">
         <v>3</v>
@@ -7151,7 +7283,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -7159,13 +7291,13 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B222" t="s">
         <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
@@ -7173,13 +7305,13 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B223" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C223" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
@@ -7187,13 +7319,13 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B224" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C224" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -7201,13 +7333,13 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B225" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C225" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -7215,15 +7347,125 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B226" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C226" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>608</v>
+      </c>
+      <c r="B227" t="s">
+        <v>609</v>
+      </c>
+      <c r="C227" t="s">
+        <v>610</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>611</v>
+      </c>
+      <c r="B228" t="s">
+        <v>612</v>
+      </c>
+      <c r="C228" t="s">
+        <v>613</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>614</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>615</v>
+      </c>
+      <c r="B230" t="s">
+        <v>616</v>
+      </c>
+      <c r="C230" t="s">
+        <v>617</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>618</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>619</v>
+      </c>
+      <c r="B232" t="s">
+        <v>620</v>
+      </c>
+      <c r="C232" t="s">
+        <v>621</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>622</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>623</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>624</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>625</v>
+      </c>
+      <c r="B236" t="s">
+        <v>626</v>
+      </c>
+      <c r="C236" t="s">
+        <v>627</v>
+      </c>
+      <c r="I236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7255,7 +7497,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7263,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D226)</f>
+        <f>SUM(Sheet!D2:D236)</f>
         <v/>
       </c>
     </row>
@@ -7272,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E226)</f>
+        <f>SUM(Sheet!E2:E236)</f>
         <v/>
       </c>
     </row>
@@ -7281,7 +7523,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F226)</f>
+        <f>SUM(Sheet!F2:F236)</f>
         <v/>
       </c>
     </row>
@@ -7290,7 +7532,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G226)</f>
+        <f>SUM(Sheet!G2:G236)</f>
         <v/>
       </c>
     </row>
@@ -7299,7 +7541,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H226)</f>
+        <f>SUM(Sheet!H2:H236)</f>
         <v/>
       </c>
     </row>
@@ -7308,7 +7550,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I226)</f>
+        <f>SUM(Sheet!I2:I236)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
   <si>
     <t>UID</t>
   </si>
@@ -1899,6 +1899,15 @@
   </si>
   <si>
     <t>jesse,silkworth@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A1B540</t>
+  </si>
+  <si>
+    <t>Davron Zakhidov</t>
+  </si>
+  <si>
+    <t>davron.zakhidov@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -3180,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3280,6 +3289,9 @@
       <c r="H4" t="n">
         <v>3</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="5" s="4" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -3498,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
@@ -3658,7 +3670,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
@@ -5597,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7467,6 +7479,20 @@
       </c>
       <c r="I236" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>628</v>
+      </c>
+      <c r="B237" t="s">
+        <v>629</v>
+      </c>
+      <c r="C237" t="s">
+        <v>630</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7497,7 +7523,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7505,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D236)</f>
+        <f>SUM(Sheet!D2:D237)</f>
         <v/>
       </c>
     </row>
@@ -7514,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E236)</f>
+        <f>SUM(Sheet!E2:E237)</f>
         <v/>
       </c>
     </row>
@@ -7523,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F236)</f>
+        <f>SUM(Sheet!F2:F237)</f>
         <v/>
       </c>
     </row>
@@ -7532,7 +7558,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G236)</f>
+        <f>SUM(Sheet!G2:G237)</f>
         <v/>
       </c>
     </row>
@@ -7541,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H236)</f>
+        <f>SUM(Sheet!H2:H237)</f>
         <v/>
       </c>
     </row>
@@ -7550,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I236)</f>
+        <f>SUM(Sheet!I2:I237)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
   <si>
     <t>UID</t>
   </si>
@@ -1908,6 +1908,27 @@
   </si>
   <si>
     <t>davron.zakhidov@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A8D440</t>
+  </si>
+  <si>
+    <t>0FD8AE9A00</t>
+  </si>
+  <si>
+    <t>Kenneth akan</t>
+  </si>
+  <si>
+    <t>kenneth.akan@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AFD100</t>
+  </si>
+  <si>
+    <t>rahyner penaranda</t>
+  </si>
+  <si>
+    <t>rahyner.penaranda@jjay.cuny.ney</t>
   </si>
   <si>
     <t>Month</t>
@@ -3189,7 +3210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3435,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="12" s="4" spans="1:9">
@@ -3464,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="13" s="4" spans="1:9">
@@ -3539,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="16" s="4" spans="1:9">
@@ -5609,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7382,7 +7403,7 @@
         <v>610</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7464,7 +7485,7 @@
         <v>624</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7492,6 +7513,42 @@
         <v>630</v>
       </c>
       <c r="I237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>631</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>632</v>
+      </c>
+      <c r="B239" t="s">
+        <v>633</v>
+      </c>
+      <c r="C239" t="s">
+        <v>634</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>635</v>
+      </c>
+      <c r="B240" t="s">
+        <v>636</v>
+      </c>
+      <c r="C240" t="s">
+        <v>637</v>
+      </c>
+      <c r="I240" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7523,7 +7580,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7531,7 +7588,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D237)</f>
+        <f>SUM(Sheet!D2:D240)</f>
         <v/>
       </c>
     </row>
@@ -7540,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E237)</f>
+        <f>SUM(Sheet!E2:E240)</f>
         <v/>
       </c>
     </row>
@@ -7549,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F237)</f>
+        <f>SUM(Sheet!F2:F240)</f>
         <v/>
       </c>
     </row>
@@ -7558,7 +7615,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G237)</f>
+        <f>SUM(Sheet!G2:G240)</f>
         <v/>
       </c>
     </row>
@@ -7567,7 +7624,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H237)</f>
+        <f>SUM(Sheet!H2:H240)</f>
         <v/>
       </c>
     </row>
@@ -7576,7 +7633,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I237)</f>
+        <f>SUM(Sheet!I2:I240)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t>UID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>8FD8AAE4A0</t>
   </si>
   <si>
@@ -1929,6 +1932,15 @@
   </si>
   <si>
     <t>rahyner.penaranda@jjay.cuny.ney</t>
+  </si>
+  <si>
+    <t>4FD8B41A40</t>
+  </si>
+  <si>
+    <t>Justin Davis</t>
+  </si>
+  <si>
+    <t>Justin.davis@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -3210,7 +3222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3227,9 +3239,10 @@
     <col customWidth="1" max="7" min="7" style="4" width="20"/>
     <col customWidth="1" max="8" min="8" style="4" width="20"/>
     <col customWidth="1" max="9" min="9" style="4" width="20"/>
+    <col customWidth="1" max="10" min="10" style="4" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:9">
+    <row customHeight="1" ht="23" r="1" s="4" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3257,26 +3270,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="2" s="4" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="3" s="4" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>6</v>
@@ -3285,15 +3301,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="4" s="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -3314,15 +3330,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="5" s="4" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4</v>
@@ -3330,16 +3346,19 @@
       <c r="E5" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:9">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="6" s="4" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2</v>
@@ -3357,12 +3376,12 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="7" s="4" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
@@ -3375,30 +3394,30 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="8" s="4" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="9" s="4" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>4</v>
@@ -3407,15 +3426,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="10" s="4" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>10</v>
@@ -3430,15 +3449,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="11" s="4" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>13</v>
@@ -3458,16 +3477,19 @@
       <c r="I11" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:9">
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="12" s="4" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2</v>
@@ -3488,15 +3510,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="13" s="4" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>3</v>
@@ -3505,15 +3527,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="14" s="4" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>43</v>
@@ -3531,18 +3553,21 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="15" s="4" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>9</v>
@@ -3563,15 +3588,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="16" s="4" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4</v>
@@ -3583,15 +3608,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="17" s="4" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>4</v>
@@ -3606,15 +3631,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="18" s="4" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>8</v>
@@ -3632,15 +3657,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="19" s="4" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>4</v>
@@ -3655,9 +3680,9 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="20" s="4" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
@@ -3665,15 +3690,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="21" s="4" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>5</v>
@@ -3694,15 +3719,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="22" s="4" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>7</v>
@@ -3711,15 +3736,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="23" s="4" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3</v>
@@ -3734,15 +3759,15 @@
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="24" s="4" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3</v>
@@ -3754,15 +3779,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="25" s="4" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>1</v>
@@ -3771,29 +3796,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="26" s="4" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="27" s="4" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>9</v>
@@ -3805,15 +3830,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="28" s="4" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2</v>
@@ -3828,15 +3853,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="29" s="4" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>4</v>
@@ -3854,15 +3879,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="30" s="4" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2</v>
@@ -3880,15 +3905,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="31" s="4" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>2</v>
@@ -3906,15 +3931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="32" s="4" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>3</v>
@@ -3935,15 +3960,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="33" s="4" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>1</v>
@@ -3952,15 +3977,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="34" s="4" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>5</v>
@@ -3972,15 +3997,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="35" s="4" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>1</v>
@@ -3992,15 +4017,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="36" s="4" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>1</v>
@@ -4012,15 +4037,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="37" s="4" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>4</v>
@@ -4041,15 +4066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="38" s="4" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>6</v>
@@ -4064,15 +4089,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="39" s="4" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>7</v>
@@ -4093,15 +4118,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="40" s="4" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>4</v>
@@ -4121,16 +4146,19 @@
       <c r="I40" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:9">
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="41" s="4" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>2</v>
@@ -4148,15 +4176,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="42" s="4" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>3</v>
@@ -4165,15 +4193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="43" s="4" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>3</v>
@@ -4182,29 +4210,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="44" s="4" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="45" s="4" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>4</v>
@@ -4222,15 +4250,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="46" s="4" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2</v>
@@ -4239,15 +4267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="47" s="4" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>3</v>
@@ -4259,15 +4287,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="48" s="4" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>2</v>
@@ -4276,15 +4304,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="49" s="4" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>4</v>
@@ -4299,15 +4327,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="50" s="4" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>4</v>
@@ -4316,15 +4344,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="51" s="4" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>3</v>
@@ -4339,15 +4367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="52" s="4" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4</v>
@@ -4359,29 +4387,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="53" s="4" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="54" s="4" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3</v>
@@ -4399,15 +4427,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="55" s="4" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>4</v>
@@ -4425,15 +4453,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="56" s="4" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3</v>
@@ -4448,15 +4476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="57" s="4" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2</v>
@@ -4468,29 +4496,29 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="58" s="4" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="59" s="4" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>6</v>
@@ -4499,15 +4527,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="60" s="4" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>2</v>
@@ -4516,15 +4544,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="61" s="4" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3</v>
@@ -4539,15 +4567,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="62" s="4" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>2</v>
@@ -4565,29 +4593,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="63" s="4" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="64" s="4" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>1</v>
@@ -4599,15 +4627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="65" s="4" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>2</v>
@@ -4619,15 +4647,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="66" s="4" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>3</v>
@@ -4642,29 +4670,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4676,15 +4704,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4696,15 +4724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4722,15 +4750,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
@@ -4739,15 +4767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
@@ -4767,16 +4795,19 @@
       <c r="I72" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -4796,16 +4827,19 @@
       <c r="I73" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
@@ -4823,15 +4857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -4849,29 +4883,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -4886,15 +4920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -4912,15 +4946,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -4941,15 +4975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -4961,15 +4995,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -4984,15 +5018,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -5001,15 +5035,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -5018,15 +5052,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -5041,15 +5075,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -5064,15 +5098,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -5084,15 +5118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
@@ -5104,15 +5138,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -5132,30 +5166,33 @@
       <c r="I88" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -5173,15 +5210,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
@@ -5196,15 +5233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -5219,15 +5256,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -5245,15 +5282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -5268,15 +5305,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -5288,15 +5325,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -5317,15 +5354,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -5340,43 +5377,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -5394,15 +5431,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -5420,15 +5457,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -5449,15 +5486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D103" t="n">
         <v>4</v>
@@ -5475,15 +5512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -5492,15 +5529,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -5512,15 +5549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -5538,15 +5575,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -5563,16 +5600,22 @@
       <c r="H107" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -5584,15 +5627,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -5610,15 +5653,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -5633,15 +5676,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -5653,15 +5696,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -5679,15 +5722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -5708,15 +5751,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E114" t="n">
         <v>12</v>
@@ -5731,37 +5774,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -5773,15 +5816,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -5790,9 +5833,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -5801,9 +5844,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -5812,15 +5855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -5835,29 +5878,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -5872,15 +5915,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -5892,71 +5935,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -5968,43 +6011,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -6016,71 +6059,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -6092,15 +6135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -6115,15 +6158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -6137,24 +6180,27 @@
       <c r="H139" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -6171,80 +6217,83 @@
       <c r="I141" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -6253,15 +6302,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
@@ -6270,99 +6319,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B150" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -6380,23 +6429,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -6405,15 +6454,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -6431,15 +6480,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -6453,44 +6502,47 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E161" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -6505,15 +6557,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -6522,15 +6574,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -6545,23 +6597,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -6570,9 +6622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -6581,15 +6633,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C168" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -6601,15 +6653,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B169" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E169" t="n">
         <v>2</v>
@@ -6621,29 +6673,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" t="n">
         <v>2</v>
@@ -6655,15 +6710,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C172" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E172" t="n">
         <v>2</v>
@@ -6672,15 +6727,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C173" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -6692,15 +6747,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E174" t="n">
         <v>6</v>
@@ -6715,15 +6770,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B175" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -6740,10 +6795,13 @@
       <c r="I175" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -6751,68 +6809,71 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -6826,16 +6887,19 @@
       <c r="I182" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -6847,12 +6911,15 @@
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6864,59 +6931,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B185" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B189" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -6931,45 +6998,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B191" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C191" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B192" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C192" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6978,15 +7045,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F194" t="n">
         <v>3</v>
@@ -7001,15 +7068,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B195" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -7018,15 +7085,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B196" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G196" t="n">
         <v>23</v>
@@ -7035,15 +7102,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G197" t="n">
         <v>9</v>
@@ -7055,23 +7122,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -7083,51 +7150,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C201" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7136,47 +7203,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7185,371 +7255,394 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B209" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C209" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C211" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B219" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B220" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C220" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H220" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B223" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B224" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B225" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B227" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C230" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C236" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C237" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B239" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C239" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I239" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
+        <v>639</v>
+      </c>
+      <c r="B241" t="s">
+        <v>640</v>
+      </c>
+      <c r="C241" t="s">
+        <v>641</v>
+      </c>
+      <c r="J241" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7567,7 +7660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -7580,7 +7673,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7588,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D240)</f>
+        <f>SUM(Sheet!D2:D241)</f>
         <v/>
       </c>
     </row>
@@ -7597,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E240)</f>
+        <f>SUM(Sheet!E2:E241)</f>
         <v/>
       </c>
     </row>
@@ -7606,7 +7699,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F240)</f>
+        <f>SUM(Sheet!F2:F241)</f>
         <v/>
       </c>
     </row>
@@ -7615,7 +7708,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G240)</f>
+        <f>SUM(Sheet!G2:G241)</f>
         <v/>
       </c>
     </row>
@@ -7624,7 +7717,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H240)</f>
+        <f>SUM(Sheet!H2:H241)</f>
         <v/>
       </c>
     </row>
@@ -7633,7 +7726,16 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I240)</f>
+        <f>SUM(Sheet!I2:I241)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Sheet!J2:J241)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -3556,7 +3556,7 @@
         <v>125</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:10">
@@ -6478,6 +6478,9 @@
       </c>
       <c r="I158" t="n">
         <v>12</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:10">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
   <si>
     <t>UID</t>
   </si>
@@ -1995,6 +1995,30 @@
   </si>
   <si>
     <t>Carlos.delossantos@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8B39BA0</t>
+  </si>
+  <si>
+    <t>CFD8B45C40</t>
+  </si>
+  <si>
+    <t>0FD89E2980</t>
+  </si>
+  <si>
+    <t>8FD8AEA680</t>
+  </si>
+  <si>
+    <t>CFD8B3CA60</t>
+  </si>
+  <si>
+    <t>CFD8B6A840</t>
+  </si>
+  <si>
+    <t>4FD8B3E300</t>
+  </si>
+  <si>
+    <t>0FD8AC1480</t>
   </si>
   <si>
     <t>Month</t>
@@ -3276,7 +3300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J249"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3384,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="5" s="4" spans="1:10">
@@ -3433,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="7" s="4" spans="1:10">
@@ -3508,6 +3532,9 @@
       <c r="G10" t="n">
         <v>6</v>
       </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="11" s="4" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -3538,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="12" s="4" spans="1:10">
@@ -3619,7 +3646,7 @@
         <v>125</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="15" s="4" spans="1:10">
@@ -3651,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="16" s="4" spans="1:10">
@@ -3746,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="20" s="4" spans="1:10">
@@ -3787,6 +3814,9 @@
       <c r="I21" t="n">
         <v>5</v>
       </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="22" s="4" spans="1:10">
       <c r="A22" s="1" t="s">
@@ -4195,6 +4225,9 @@
       <c r="I39" t="n">
         <v>3</v>
       </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="40" s="4" spans="1:10">
       <c r="A40" s="1" t="s">
@@ -4225,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="17" r="41" s="4" spans="1:10">
@@ -4877,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4964,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5062,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5257,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5444,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5614,7 +5647,7 @@
         <v>5</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5709,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5829,6 +5862,9 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
@@ -5859,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5943,6 +5979,9 @@
       <c r="G118" t="n">
         <v>1</v>
       </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
@@ -6046,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6274,6 +6313,9 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
@@ -6335,7 +6377,7 @@
         <v>12</v>
       </c>
       <c r="J141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6546,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6600,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="J158" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6626,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6679,6 +6721,9 @@
       <c r="H162" t="n">
         <v>1</v>
       </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
@@ -6812,6 +6857,9 @@
       <c r="I170" t="n">
         <v>1</v>
       </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
@@ -6895,6 +6943,9 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
@@ -6922,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6942,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -7049,7 +7100,7 @@
         <v>4</v>
       </c>
       <c r="J183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -7206,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7243,7 +7294,7 @@
         <v>8</v>
       </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7366,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7455,7 +7506,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7474,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7654,6 +7705,9 @@
       <c r="I228" t="n">
         <v>3</v>
       </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
@@ -7663,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7705,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7738,7 +7792,7 @@
         <v>5</v>
       </c>
       <c r="J235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7754,6 +7808,9 @@
       <c r="I236" t="n">
         <v>1</v>
       </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
@@ -7776,6 +7833,9 @@
       <c r="I238" t="n">
         <v>3</v>
       </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
@@ -7804,6 +7864,9 @@
       <c r="I240" t="n">
         <v>2</v>
       </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
@@ -7816,7 +7879,7 @@
         <v>645</v>
       </c>
       <c r="J241" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -7824,7 +7887,7 @@
         <v>646</v>
       </c>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -7846,7 +7909,7 @@
         <v>650</v>
       </c>
       <c r="J244" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -7898,7 +7961,71 @@
         <v>659</v>
       </c>
       <c r="J249" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
+        <v>660</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
+        <v>661</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
+        <v>662</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
+        <v>663</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
+        <v>664</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
+        <v>665</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
+        <v>666</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
+        <v>667</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7929,7 +8056,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7937,7 +8064,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D249)</f>
+        <f>SUM(Sheet!D2:D257)</f>
         <v/>
       </c>
     </row>
@@ -7946,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E249)</f>
+        <f>SUM(Sheet!E2:E257)</f>
         <v/>
       </c>
     </row>
@@ -7955,7 +8082,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F249)</f>
+        <f>SUM(Sheet!F2:F257)</f>
         <v/>
       </c>
     </row>
@@ -7964,7 +8091,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G249)</f>
+        <f>SUM(Sheet!G2:G257)</f>
         <v/>
       </c>
     </row>
@@ -7973,7 +8100,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H249)</f>
+        <f>SUM(Sheet!H2:H257)</f>
         <v/>
       </c>
     </row>
@@ -7982,7 +8109,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I249)</f>
+        <f>SUM(Sheet!I2:I257)</f>
         <v/>
       </c>
     </row>
@@ -7991,7 +8118,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>SUM(Sheet!J2:J249)</f>
+        <f>SUM(Sheet!J2:J257)</f>
         <v/>
       </c>
     </row>
